--- a/data/fuel_prices.xlsx
+++ b/data/fuel_prices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s203679_dtu_dk/Documents/Dokumenter/Hydrogen demand model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s203679_dtu_dk/Documents/Dokumenter/DTU_Man/h2_system_dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{B4DB5CEF-82BA-4E93-8F43-2C22F33E7EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66F24CAF-B531-4893-A7A2-182AA9A7D53A}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{B4DB5CEF-82BA-4E93-8F43-2C22F33E7EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C48DF2D-EF8B-4024-A522-B580DF99F191}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of content" sheetId="2" r:id="rId1"/>
@@ -599,15 +599,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -625,13 +616,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -643,13 +634,22 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -3550,12 +3550,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3666,13 +3666,13 @@
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="36">
         <v>2015</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3794,9 +3794,9 @@
       </c>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="37"/>
       <c r="D3" t="s">
         <v>42</v>
       </c>
@@ -3916,9 +3916,9 @@
       </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="37"/>
       <c r="D4" t="s">
         <v>65</v>
       </c>
@@ -4038,9 +4038,9 @@
       </c>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="40">
+      <c r="A5" s="40"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="37">
         <v>2030</v>
       </c>
       <c r="D5" t="s">
@@ -4147,9 +4147,9 @@
       </c>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
       <c r="D6" t="s">
         <v>42</v>
       </c>
@@ -4365,9 +4365,9 @@
       </c>
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="37"/>
       <c r="D7" t="s">
         <v>65</v>
       </c>
@@ -4619,9 +4619,9 @@
       </c>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="40">
+      <c r="A8" s="40"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="37">
         <v>2050</v>
       </c>
       <c r="D8" t="s">
@@ -4872,9 +4872,9 @@
       </c>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="37"/>
       <c r="D9" t="s">
         <v>42</v>
       </c>
@@ -5123,9 +5123,9 @@
       </c>
     </row>
     <row r="10" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="41"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="3" t="s">
         <v>65</v>
       </c>
@@ -5374,11 +5374,11 @@
       </c>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="36">
         <v>2015</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5632,9 +5632,9 @@
       </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="37"/>
       <c r="D12" t="s">
         <v>42</v>
       </c>
@@ -5883,9 +5883,9 @@
       </c>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
       <c r="D13" t="s">
         <v>65</v>
       </c>
@@ -5990,9 +5990,9 @@
       </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="40">
+      <c r="A14" s="40"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="37">
         <v>2030</v>
       </c>
       <c r="D14" t="s">
@@ -6099,9 +6099,9 @@
       </c>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="37"/>
       <c r="D15" t="s">
         <v>42</v>
       </c>
@@ -6206,9 +6206,9 @@
       </c>
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="37"/>
       <c r="D16" t="s">
         <v>65</v>
       </c>
@@ -6313,9 +6313,9 @@
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="40">
+      <c r="A17" s="40"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="37">
         <v>2050</v>
       </c>
       <c r="D17" t="s">
@@ -6422,9 +6422,9 @@
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="37"/>
       <c r="D18" t="s">
         <v>42</v>
       </c>
@@ -6529,9 +6529,9 @@
       </c>
     </row>
     <row r="19" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="41"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="3" t="s">
         <v>65</v>
       </c>
@@ -6636,11 +6636,11 @@
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="36">
         <v>2015</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -6747,9 +6747,9 @@
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="37"/>
       <c r="D21" t="s">
         <v>42</v>
       </c>
@@ -6854,9 +6854,9 @@
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="40"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="37"/>
       <c r="D22" t="s">
         <v>65</v>
       </c>
@@ -6961,9 +6961,9 @@
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="40">
+      <c r="A23" s="40"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="37">
         <v>2030</v>
       </c>
       <c r="D23" t="s">
@@ -7070,9 +7070,9 @@
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="40"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="37"/>
       <c r="D24" t="s">
         <v>42</v>
       </c>
@@ -7177,9 +7177,9 @@
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="40"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="37"/>
       <c r="D25" t="s">
         <v>65</v>
       </c>
@@ -7284,9 +7284,9 @@
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="40">
+      <c r="A26" s="40"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="37">
         <v>2050</v>
       </c>
       <c r="D26" t="s">
@@ -7393,9 +7393,9 @@
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="40"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="37"/>
       <c r="D27" t="s">
         <v>42</v>
       </c>
@@ -7500,9 +7500,9 @@
       </c>
     </row>
     <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="41"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="3" t="s">
         <v>65</v>
       </c>
@@ -7607,11 +7607,11 @@
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="36" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="36">
         <v>2015</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -7718,9 +7718,9 @@
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="40"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="37"/>
       <c r="D30" t="s">
         <v>42</v>
       </c>
@@ -7825,9 +7825,9 @@
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="40"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="37"/>
       <c r="D31" t="s">
         <v>65</v>
       </c>
@@ -7932,9 +7932,9 @@
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="40">
+      <c r="A32" s="40"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="37">
         <v>2030</v>
       </c>
       <c r="D32" t="s">
@@ -8041,9 +8041,9 @@
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="40"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="37"/>
       <c r="D33" t="s">
         <v>42</v>
       </c>
@@ -8148,9 +8148,9 @@
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="40"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="37"/>
       <c r="D34" t="s">
         <v>65</v>
       </c>
@@ -8255,9 +8255,9 @@
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="40">
+      <c r="A35" s="40"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="37">
         <v>2050</v>
       </c>
       <c r="D35" t="s">
@@ -8364,9 +8364,9 @@
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="40"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="37"/>
       <c r="D36" t="s">
         <v>42</v>
       </c>
@@ -8471,9 +8471,9 @@
       </c>
     </row>
     <row r="37" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="41"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="3" t="s">
         <v>65</v>
       </c>
@@ -8578,11 +8578,11 @@
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="36" t="s">
+      <c r="A38" s="40"/>
+      <c r="B38" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="36">
         <v>2015</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -8689,9 +8689,9 @@
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="40"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="37"/>
       <c r="D39" t="s">
         <v>42</v>
       </c>
@@ -8796,9 +8796,9 @@
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="40"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="37"/>
       <c r="D40" t="s">
         <v>65</v>
       </c>
@@ -8903,9 +8903,9 @@
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="40">
+      <c r="A41" s="40"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="37">
         <v>2030</v>
       </c>
       <c r="D41" t="s">
@@ -9012,9 +9012,9 @@
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="40"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="37"/>
       <c r="D42" t="s">
         <v>42</v>
       </c>
@@ -9119,9 +9119,9 @@
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="40"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="37"/>
       <c r="D43" t="s">
         <v>65</v>
       </c>
@@ -9226,9 +9226,9 @@
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="40">
+      <c r="A44" s="40"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="37">
         <v>2050</v>
       </c>
       <c r="D44" t="s">
@@ -9335,9 +9335,9 @@
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="40"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="37"/>
       <c r="D45" t="s">
         <v>42</v>
       </c>
@@ -9442,9 +9442,9 @@
       </c>
     </row>
     <row r="46" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="41"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="3" t="s">
         <v>65</v>
       </c>
@@ -9549,11 +9549,11 @@
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="36" t="s">
+      <c r="A47" s="40"/>
+      <c r="B47" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="36">
         <v>2015</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -9660,9 +9660,9 @@
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="40"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="37"/>
       <c r="D48" t="s">
         <v>42</v>
       </c>
@@ -9767,9 +9767,9 @@
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="40"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="37"/>
       <c r="D49" t="s">
         <v>65</v>
       </c>
@@ -9874,9 +9874,9 @@
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="40">
+      <c r="A50" s="40"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="37">
         <v>2030</v>
       </c>
       <c r="D50" t="s">
@@ -9983,9 +9983,9 @@
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="40"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="37"/>
       <c r="D51" t="s">
         <v>42</v>
       </c>
@@ -10090,9 +10090,9 @@
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="40"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="37"/>
       <c r="D52" t="s">
         <v>65</v>
       </c>
@@ -10197,9 +10197,9 @@
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="40">
+      <c r="A53" s="40"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="37">
         <v>2050</v>
       </c>
       <c r="D53" t="s">
@@ -10306,9 +10306,9 @@
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="40"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="37"/>
       <c r="D54" t="s">
         <v>42</v>
       </c>
@@ -10413,9 +10413,9 @@
       </c>
     </row>
     <row r="55" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="49"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="41"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="38"/>
       <c r="D55" s="3" t="s">
         <v>65</v>
       </c>
@@ -10520,11 +10520,11 @@
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="36" t="s">
+      <c r="A56" s="40"/>
+      <c r="B56" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="36">
         <v>2015</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -10631,9 +10631,9 @@
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="40"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="37"/>
       <c r="D57" t="s">
         <v>42</v>
       </c>
@@ -10738,9 +10738,9 @@
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="40"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="37"/>
       <c r="D58" t="s">
         <v>65</v>
       </c>
@@ -10845,9 +10845,9 @@
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="40">
+      <c r="A59" s="40"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="37">
         <v>2030</v>
       </c>
       <c r="D59" t="s">
@@ -10954,9 +10954,9 @@
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="40"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="37"/>
       <c r="D60" t="s">
         <v>42</v>
       </c>
@@ -11061,9 +11061,9 @@
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="40"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="37"/>
       <c r="D61" t="s">
         <v>65</v>
       </c>
@@ -11168,9 +11168,9 @@
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="40">
+      <c r="A62" s="40"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="37">
         <v>2050</v>
       </c>
       <c r="D62" t="s">
@@ -11277,9 +11277,9 @@
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="40"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="37"/>
       <c r="D63" t="s">
         <v>42</v>
       </c>
@@ -11384,9 +11384,9 @@
       </c>
     </row>
     <row r="64" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="49"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="41"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="3" t="s">
         <v>65</v>
       </c>
@@ -11491,11 +11491,11 @@
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="36" t="s">
+      <c r="A65" s="40"/>
+      <c r="B65" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="36">
         <v>2015</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -11602,9 +11602,9 @@
       </c>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="40"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="37"/>
       <c r="D66" t="s">
         <v>42</v>
       </c>
@@ -11709,9 +11709,9 @@
       </c>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="40"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="37"/>
       <c r="D67" t="s">
         <v>65</v>
       </c>
@@ -11816,9 +11816,9 @@
       </c>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="40">
+      <c r="A68" s="40"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="37">
         <v>2030</v>
       </c>
       <c r="D68" t="s">
@@ -11925,9 +11925,9 @@
       </c>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="40"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="37"/>
       <c r="D69" t="s">
         <v>42</v>
       </c>
@@ -12032,9 +12032,9 @@
       </c>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="40"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="37"/>
       <c r="D70" t="s">
         <v>65</v>
       </c>
@@ -12139,9 +12139,9 @@
       </c>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="40">
+      <c r="A71" s="40"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="37">
         <v>2050</v>
       </c>
       <c r="D71" t="s">
@@ -12248,9 +12248,9 @@
       </c>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="40"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="37"/>
       <c r="D72" t="s">
         <v>42</v>
       </c>
@@ -12355,9 +12355,9 @@
       </c>
     </row>
     <row r="73" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="50"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="41"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="3" t="s">
         <v>65</v>
       </c>
@@ -12462,13 +12462,13 @@
       </c>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="39">
+      <c r="C74" s="36">
         <v>2015</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -12575,9 +12575,9 @@
       </c>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="40"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="37"/>
       <c r="D75" t="s">
         <v>42</v>
       </c>
@@ -12682,9 +12682,9 @@
       </c>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A76" s="46"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="40"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="37"/>
       <c r="D76" t="s">
         <v>65</v>
       </c>
@@ -12789,9 +12789,9 @@
       </c>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A77" s="46"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="40">
+      <c r="A77" s="43"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="37">
         <v>2030</v>
       </c>
       <c r="D77" t="s">
@@ -12898,9 +12898,9 @@
       </c>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A78" s="46"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="40"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="37"/>
       <c r="D78" t="s">
         <v>42</v>
       </c>
@@ -13005,9 +13005,9 @@
       </c>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A79" s="46"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="40"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="37"/>
       <c r="D79" t="s">
         <v>65</v>
       </c>
@@ -13112,9 +13112,9 @@
       </c>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A80" s="46"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="40">
+      <c r="A80" s="43"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="37">
         <v>2050</v>
       </c>
       <c r="D80" t="s">
@@ -13221,9 +13221,9 @@
       </c>
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A81" s="46"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="40"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="37"/>
       <c r="D81" t="s">
         <v>42</v>
       </c>
@@ -13328,9 +13328,9 @@
       </c>
     </row>
     <row r="82" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="46"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="41"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="38"/>
       <c r="D82" s="3" t="s">
         <v>65</v>
       </c>
@@ -13435,11 +13435,11 @@
       </c>
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A83" s="46"/>
-      <c r="B83" s="36" t="s">
+      <c r="A83" s="43"/>
+      <c r="B83" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="39">
+      <c r="C83" s="36">
         <v>2015</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -13546,9 +13546,9 @@
       </c>
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A84" s="46"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="40"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="37"/>
       <c r="D84" t="s">
         <v>42</v>
       </c>
@@ -13653,9 +13653,9 @@
       </c>
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A85" s="46"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="40"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="37"/>
       <c r="D85" t="s">
         <v>65</v>
       </c>
@@ -13760,9 +13760,9 @@
       </c>
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A86" s="46"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="40">
+      <c r="A86" s="43"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="37">
         <v>2030</v>
       </c>
       <c r="D86" t="s">
@@ -13869,9 +13869,9 @@
       </c>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A87" s="46"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="40"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="37"/>
       <c r="D87" t="s">
         <v>42</v>
       </c>
@@ -13976,9 +13976,9 @@
       </c>
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A88" s="46"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="40"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="37"/>
       <c r="D88" t="s">
         <v>65</v>
       </c>
@@ -14083,9 +14083,9 @@
       </c>
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A89" s="46"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="40">
+      <c r="A89" s="43"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="37">
         <v>2050</v>
       </c>
       <c r="D89" t="s">
@@ -14192,9 +14192,9 @@
       </c>
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A90" s="46"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="40"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="37"/>
       <c r="D90" t="s">
         <v>42</v>
       </c>
@@ -14299,9 +14299,9 @@
       </c>
     </row>
     <row r="91" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="46"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="41"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="38"/>
       <c r="D91" s="3" t="s">
         <v>65</v>
       </c>
@@ -14406,11 +14406,11 @@
       </c>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A92" s="46"/>
-      <c r="B92" s="36" t="s">
+      <c r="A92" s="43"/>
+      <c r="B92" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="39">
+      <c r="C92" s="36">
         <v>2015</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -14517,9 +14517,9 @@
       </c>
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A93" s="46"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="40"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="37"/>
       <c r="D93" t="s">
         <v>42</v>
       </c>
@@ -14624,9 +14624,9 @@
       </c>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A94" s="46"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="40"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="37"/>
       <c r="D94" t="s">
         <v>65</v>
       </c>
@@ -14731,9 +14731,9 @@
       </c>
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A95" s="46"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="40">
+      <c r="A95" s="43"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="37">
         <v>2030</v>
       </c>
       <c r="D95" t="s">
@@ -14840,9 +14840,9 @@
       </c>
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A96" s="46"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="40"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="37"/>
       <c r="D96" t="s">
         <v>42</v>
       </c>
@@ -14947,9 +14947,9 @@
       </c>
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A97" s="46"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="40"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="37"/>
       <c r="D97" t="s">
         <v>65</v>
       </c>
@@ -15054,9 +15054,9 @@
       </c>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A98" s="46"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="40">
+      <c r="A98" s="43"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="37">
         <v>2050</v>
       </c>
       <c r="D98" t="s">
@@ -15163,9 +15163,9 @@
       </c>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A99" s="46"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="40"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="37"/>
       <c r="D99" t="s">
         <v>42</v>
       </c>
@@ -15270,9 +15270,9 @@
       </c>
     </row>
     <row r="100" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="46"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="41"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="38"/>
       <c r="D100" s="3" t="s">
         <v>65</v>
       </c>
@@ -15377,11 +15377,11 @@
       </c>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A101" s="46"/>
-      <c r="B101" s="36" t="s">
+      <c r="A101" s="43"/>
+      <c r="B101" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="39">
+      <c r="C101" s="36">
         <v>2015</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -15488,9 +15488,9 @@
       </c>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A102" s="46"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="40"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="37"/>
       <c r="D102" t="s">
         <v>42</v>
       </c>
@@ -15595,9 +15595,9 @@
       </c>
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A103" s="46"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="40"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="37"/>
       <c r="D103" t="s">
         <v>65</v>
       </c>
@@ -15702,9 +15702,9 @@
       </c>
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A104" s="46"/>
-      <c r="B104" s="37"/>
-      <c r="C104" s="40">
+      <c r="A104" s="43"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="37">
         <v>2030</v>
       </c>
       <c r="D104" t="s">
@@ -15811,9 +15811,9 @@
       </c>
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A105" s="46"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="40"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="37"/>
       <c r="D105" t="s">
         <v>42</v>
       </c>
@@ -15918,9 +15918,9 @@
       </c>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A106" s="46"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="40"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="37"/>
       <c r="D106" t="s">
         <v>65</v>
       </c>
@@ -16025,9 +16025,9 @@
       </c>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A107" s="46"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="40">
+      <c r="A107" s="43"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="37">
         <v>2050</v>
       </c>
       <c r="D107" t="s">
@@ -16134,9 +16134,9 @@
       </c>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A108" s="46"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="40"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="37"/>
       <c r="D108" t="s">
         <v>42</v>
       </c>
@@ -16241,9 +16241,9 @@
       </c>
     </row>
     <row r="109" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="46"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="41"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="38"/>
       <c r="D109" s="3" t="s">
         <v>65</v>
       </c>
@@ -16348,11 +16348,11 @@
       </c>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A110" s="46"/>
-      <c r="B110" s="36" t="s">
+      <c r="A110" s="43"/>
+      <c r="B110" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="39">
+      <c r="C110" s="36">
         <v>2015</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -16459,9 +16459,9 @@
       </c>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A111" s="46"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="40"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="37"/>
       <c r="D111" t="s">
         <v>42</v>
       </c>
@@ -16566,9 +16566,9 @@
       </c>
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A112" s="46"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="40"/>
+      <c r="A112" s="43"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="37"/>
       <c r="D112" t="s">
         <v>65</v>
       </c>
@@ -16673,9 +16673,9 @@
       </c>
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A113" s="46"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="40">
+      <c r="A113" s="43"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="37">
         <v>2030</v>
       </c>
       <c r="D113" t="s">
@@ -16782,9 +16782,9 @@
       </c>
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A114" s="46"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="40"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="37"/>
       <c r="D114" t="s">
         <v>42</v>
       </c>
@@ -16889,9 +16889,9 @@
       </c>
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A115" s="46"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="40"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="37"/>
       <c r="D115" t="s">
         <v>65</v>
       </c>
@@ -16996,9 +16996,9 @@
       </c>
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A116" s="46"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="40">
+      <c r="A116" s="43"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="37">
         <v>2050</v>
       </c>
       <c r="D116" t="s">
@@ -17105,9 +17105,9 @@
       </c>
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A117" s="46"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="40"/>
+      <c r="A117" s="43"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="37"/>
       <c r="D117" t="s">
         <v>42</v>
       </c>
@@ -17212,9 +17212,9 @@
       </c>
     </row>
     <row r="118" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="46"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="41"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="38"/>
       <c r="D118" s="3" t="s">
         <v>65</v>
       </c>
@@ -17319,11 +17319,11 @@
       </c>
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A119" s="46"/>
-      <c r="B119" s="36" t="s">
+      <c r="A119" s="43"/>
+      <c r="B119" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C119" s="39">
+      <c r="C119" s="36">
         <v>2015</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -17430,9 +17430,9 @@
       </c>
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A120" s="46"/>
-      <c r="B120" s="37"/>
-      <c r="C120" s="40"/>
+      <c r="A120" s="43"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="37"/>
       <c r="D120" t="s">
         <v>42</v>
       </c>
@@ -17537,9 +17537,9 @@
       </c>
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A121" s="46"/>
-      <c r="B121" s="37"/>
-      <c r="C121" s="40"/>
+      <c r="A121" s="43"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="37"/>
       <c r="D121" t="s">
         <v>65</v>
       </c>
@@ -17644,9 +17644,9 @@
       </c>
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A122" s="46"/>
-      <c r="B122" s="37"/>
-      <c r="C122" s="40">
+      <c r="A122" s="43"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="37">
         <v>2030</v>
       </c>
       <c r="D122" t="s">
@@ -17753,9 +17753,9 @@
       </c>
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A123" s="46"/>
-      <c r="B123" s="37"/>
-      <c r="C123" s="40"/>
+      <c r="A123" s="43"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="37"/>
       <c r="D123" t="s">
         <v>42</v>
       </c>
@@ -17860,9 +17860,9 @@
       </c>
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A124" s="46"/>
-      <c r="B124" s="37"/>
-      <c r="C124" s="40"/>
+      <c r="A124" s="43"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="37"/>
       <c r="D124" t="s">
         <v>65</v>
       </c>
@@ -17967,9 +17967,9 @@
       </c>
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A125" s="46"/>
-      <c r="B125" s="37"/>
-      <c r="C125" s="40">
+      <c r="A125" s="43"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="37">
         <v>2050</v>
       </c>
       <c r="D125" t="s">
@@ -18076,9 +18076,9 @@
       </c>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A126" s="46"/>
-      <c r="B126" s="37"/>
-      <c r="C126" s="40"/>
+      <c r="A126" s="43"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="37"/>
       <c r="D126" t="s">
         <v>42</v>
       </c>
@@ -18183,9 +18183,9 @@
       </c>
     </row>
     <row r="127" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="46"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="41"/>
+      <c r="A127" s="43"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="38"/>
       <c r="D127" s="3" t="s">
         <v>65</v>
       </c>
@@ -18290,11 +18290,11 @@
       </c>
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A128" s="46"/>
-      <c r="B128" s="36" t="s">
+      <c r="A128" s="43"/>
+      <c r="B128" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C128" s="39">
+      <c r="C128" s="36">
         <v>2015</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -18401,9 +18401,9 @@
       </c>
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A129" s="46"/>
-      <c r="B129" s="37"/>
-      <c r="C129" s="40"/>
+      <c r="A129" s="43"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="37"/>
       <c r="D129" t="s">
         <v>42</v>
       </c>
@@ -18508,9 +18508,9 @@
       </c>
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A130" s="46"/>
-      <c r="B130" s="37"/>
-      <c r="C130" s="40"/>
+      <c r="A130" s="43"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="37"/>
       <c r="D130" t="s">
         <v>65</v>
       </c>
@@ -18615,9 +18615,9 @@
       </c>
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A131" s="46"/>
-      <c r="B131" s="37"/>
-      <c r="C131" s="40">
+      <c r="A131" s="43"/>
+      <c r="B131" s="34"/>
+      <c r="C131" s="37">
         <v>2030</v>
       </c>
       <c r="D131" t="s">
@@ -18724,9 +18724,9 @@
       </c>
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A132" s="46"/>
-      <c r="B132" s="37"/>
-      <c r="C132" s="40"/>
+      <c r="A132" s="43"/>
+      <c r="B132" s="34"/>
+      <c r="C132" s="37"/>
       <c r="D132" t="s">
         <v>42</v>
       </c>
@@ -18831,9 +18831,9 @@
       </c>
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A133" s="46"/>
-      <c r="B133" s="37"/>
-      <c r="C133" s="40"/>
+      <c r="A133" s="43"/>
+      <c r="B133" s="34"/>
+      <c r="C133" s="37"/>
       <c r="D133" t="s">
         <v>65</v>
       </c>
@@ -18938,9 +18938,9 @@
       </c>
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A134" s="46"/>
-      <c r="B134" s="37"/>
-      <c r="C134" s="40">
+      <c r="A134" s="43"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="37">
         <v>2050</v>
       </c>
       <c r="D134" t="s">
@@ -19047,9 +19047,9 @@
       </c>
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A135" s="46"/>
-      <c r="B135" s="37"/>
-      <c r="C135" s="40"/>
+      <c r="A135" s="43"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="37"/>
       <c r="D135" t="s">
         <v>42</v>
       </c>
@@ -19154,9 +19154,9 @@
       </c>
     </row>
     <row r="136" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="46"/>
-      <c r="B136" s="38"/>
-      <c r="C136" s="41"/>
+      <c r="A136" s="43"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="38"/>
       <c r="D136" s="3" t="s">
         <v>65</v>
       </c>
@@ -19261,11 +19261,11 @@
       </c>
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A137" s="46"/>
-      <c r="B137" s="36" t="s">
+      <c r="A137" s="43"/>
+      <c r="B137" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="39">
+      <c r="C137" s="36">
         <v>2015</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -19372,9 +19372,9 @@
       </c>
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A138" s="46"/>
-      <c r="B138" s="37"/>
-      <c r="C138" s="40"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="34"/>
+      <c r="C138" s="37"/>
       <c r="D138" t="s">
         <v>42</v>
       </c>
@@ -19479,9 +19479,9 @@
       </c>
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A139" s="46"/>
-      <c r="B139" s="37"/>
-      <c r="C139" s="40"/>
+      <c r="A139" s="43"/>
+      <c r="B139" s="34"/>
+      <c r="C139" s="37"/>
       <c r="D139" t="s">
         <v>65</v>
       </c>
@@ -19586,9 +19586,9 @@
       </c>
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A140" s="46"/>
-      <c r="B140" s="37"/>
-      <c r="C140" s="40">
+      <c r="A140" s="43"/>
+      <c r="B140" s="34"/>
+      <c r="C140" s="37">
         <v>2030</v>
       </c>
       <c r="D140" t="s">
@@ -19695,9 +19695,9 @@
       </c>
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A141" s="46"/>
-      <c r="B141" s="37"/>
-      <c r="C141" s="40"/>
+      <c r="A141" s="43"/>
+      <c r="B141" s="34"/>
+      <c r="C141" s="37"/>
       <c r="D141" t="s">
         <v>42</v>
       </c>
@@ -19802,9 +19802,9 @@
       </c>
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A142" s="46"/>
-      <c r="B142" s="37"/>
-      <c r="C142" s="40"/>
+      <c r="A142" s="43"/>
+      <c r="B142" s="34"/>
+      <c r="C142" s="37"/>
       <c r="D142" t="s">
         <v>65</v>
       </c>
@@ -19909,9 +19909,9 @@
       </c>
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A143" s="46"/>
-      <c r="B143" s="37"/>
-      <c r="C143" s="40">
+      <c r="A143" s="43"/>
+      <c r="B143" s="34"/>
+      <c r="C143" s="37">
         <v>2050</v>
       </c>
       <c r="D143" t="s">
@@ -20018,9 +20018,9 @@
       </c>
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A144" s="46"/>
-      <c r="B144" s="37"/>
-      <c r="C144" s="40"/>
+      <c r="A144" s="43"/>
+      <c r="B144" s="34"/>
+      <c r="C144" s="37"/>
       <c r="D144" t="s">
         <v>42</v>
       </c>
@@ -20125,9 +20125,9 @@
       </c>
     </row>
     <row r="145" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="47"/>
-      <c r="B145" s="38"/>
-      <c r="C145" s="41"/>
+      <c r="A145" s="44"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="38"/>
       <c r="D145" s="3" t="s">
         <v>65</v>
       </c>
@@ -20232,13 +20232,13 @@
       </c>
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A146" s="42" t="s">
+      <c r="A146" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B146" s="36" t="s">
+      <c r="B146" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C146" s="39">
+      <c r="C146" s="36">
         <v>2015</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -20345,9 +20345,9 @@
       </c>
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A147" s="43"/>
-      <c r="B147" s="37"/>
-      <c r="C147" s="40"/>
+      <c r="A147" s="49"/>
+      <c r="B147" s="34"/>
+      <c r="C147" s="37"/>
       <c r="D147" t="s">
         <v>42</v>
       </c>
@@ -20452,9 +20452,9 @@
       </c>
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A148" s="43"/>
-      <c r="B148" s="37"/>
-      <c r="C148" s="40"/>
+      <c r="A148" s="49"/>
+      <c r="B148" s="34"/>
+      <c r="C148" s="37"/>
       <c r="D148" t="s">
         <v>65</v>
       </c>
@@ -20559,9 +20559,9 @@
       </c>
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A149" s="43"/>
-      <c r="B149" s="37"/>
-      <c r="C149" s="40">
+      <c r="A149" s="49"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="37">
         <v>2030</v>
       </c>
       <c r="D149" t="s">
@@ -20668,9 +20668,9 @@
       </c>
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A150" s="43"/>
-      <c r="B150" s="37"/>
-      <c r="C150" s="40"/>
+      <c r="A150" s="49"/>
+      <c r="B150" s="34"/>
+      <c r="C150" s="37"/>
       <c r="D150" t="s">
         <v>42</v>
       </c>
@@ -20775,9 +20775,9 @@
       </c>
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A151" s="43"/>
-      <c r="B151" s="37"/>
-      <c r="C151" s="40"/>
+      <c r="A151" s="49"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="37"/>
       <c r="D151" t="s">
         <v>65</v>
       </c>
@@ -20882,9 +20882,9 @@
       </c>
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A152" s="43"/>
-      <c r="B152" s="37"/>
-      <c r="C152" s="40">
+      <c r="A152" s="49"/>
+      <c r="B152" s="34"/>
+      <c r="C152" s="37">
         <v>2050</v>
       </c>
       <c r="D152" t="s">
@@ -20991,9 +20991,9 @@
       </c>
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A153" s="43"/>
-      <c r="B153" s="37"/>
-      <c r="C153" s="40"/>
+      <c r="A153" s="49"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="37"/>
       <c r="D153" t="s">
         <v>42</v>
       </c>
@@ -21098,9 +21098,9 @@
       </c>
     </row>
     <row r="154" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="43"/>
-      <c r="B154" s="38"/>
-      <c r="C154" s="41"/>
+      <c r="A154" s="49"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="38"/>
       <c r="D154" s="3" t="s">
         <v>65</v>
       </c>
@@ -21205,11 +21205,11 @@
       </c>
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A155" s="43"/>
-      <c r="B155" s="36" t="s">
+      <c r="A155" s="49"/>
+      <c r="B155" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="39">
+      <c r="C155" s="36">
         <v>2015</v>
       </c>
       <c r="D155" s="2" t="s">
@@ -21316,9 +21316,9 @@
       </c>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A156" s="43"/>
-      <c r="B156" s="37"/>
-      <c r="C156" s="40"/>
+      <c r="A156" s="49"/>
+      <c r="B156" s="34"/>
+      <c r="C156" s="37"/>
       <c r="D156" t="s">
         <v>42</v>
       </c>
@@ -21423,9 +21423,9 @@
       </c>
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A157" s="43"/>
-      <c r="B157" s="37"/>
-      <c r="C157" s="40"/>
+      <c r="A157" s="49"/>
+      <c r="B157" s="34"/>
+      <c r="C157" s="37"/>
       <c r="D157" t="s">
         <v>65</v>
       </c>
@@ -21530,9 +21530,9 @@
       </c>
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A158" s="43"/>
-      <c r="B158" s="37"/>
-      <c r="C158" s="40">
+      <c r="A158" s="49"/>
+      <c r="B158" s="34"/>
+      <c r="C158" s="37">
         <v>2030</v>
       </c>
       <c r="D158" t="s">
@@ -21639,9 +21639,9 @@
       </c>
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A159" s="43"/>
-      <c r="B159" s="37"/>
-      <c r="C159" s="40"/>
+      <c r="A159" s="49"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="37"/>
       <c r="D159" t="s">
         <v>42</v>
       </c>
@@ -21746,9 +21746,9 @@
       </c>
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A160" s="43"/>
-      <c r="B160" s="37"/>
-      <c r="C160" s="40"/>
+      <c r="A160" s="49"/>
+      <c r="B160" s="34"/>
+      <c r="C160" s="37"/>
       <c r="D160" t="s">
         <v>65</v>
       </c>
@@ -21853,9 +21853,9 @@
       </c>
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A161" s="43"/>
-      <c r="B161" s="37"/>
-      <c r="C161" s="40">
+      <c r="A161" s="49"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="37">
         <v>2050</v>
       </c>
       <c r="D161" t="s">
@@ -21962,9 +21962,9 @@
       </c>
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A162" s="43"/>
-      <c r="B162" s="37"/>
-      <c r="C162" s="40"/>
+      <c r="A162" s="49"/>
+      <c r="B162" s="34"/>
+      <c r="C162" s="37"/>
       <c r="D162" t="s">
         <v>42</v>
       </c>
@@ -22069,9 +22069,9 @@
       </c>
     </row>
     <row r="163" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="43"/>
-      <c r="B163" s="38"/>
-      <c r="C163" s="41"/>
+      <c r="A163" s="49"/>
+      <c r="B163" s="35"/>
+      <c r="C163" s="38"/>
       <c r="D163" s="3" t="s">
         <v>65</v>
       </c>
@@ -22176,11 +22176,11 @@
       </c>
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A164" s="43"/>
-      <c r="B164" s="36" t="s">
+      <c r="A164" s="49"/>
+      <c r="B164" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="39">
+      <c r="C164" s="36">
         <v>2015</v>
       </c>
       <c r="D164" s="2" t="s">
@@ -22287,9 +22287,9 @@
       </c>
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A165" s="43"/>
-      <c r="B165" s="37"/>
-      <c r="C165" s="40"/>
+      <c r="A165" s="49"/>
+      <c r="B165" s="34"/>
+      <c r="C165" s="37"/>
       <c r="D165" t="s">
         <v>42</v>
       </c>
@@ -22394,9 +22394,9 @@
       </c>
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A166" s="43"/>
-      <c r="B166" s="37"/>
-      <c r="C166" s="40"/>
+      <c r="A166" s="49"/>
+      <c r="B166" s="34"/>
+      <c r="C166" s="37"/>
       <c r="D166" t="s">
         <v>65</v>
       </c>
@@ -22501,9 +22501,9 @@
       </c>
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A167" s="43"/>
-      <c r="B167" s="37"/>
-      <c r="C167" s="40">
+      <c r="A167" s="49"/>
+      <c r="B167" s="34"/>
+      <c r="C167" s="37">
         <v>2030</v>
       </c>
       <c r="D167" t="s">
@@ -22610,9 +22610,9 @@
       </c>
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A168" s="43"/>
-      <c r="B168" s="37"/>
-      <c r="C168" s="40"/>
+      <c r="A168" s="49"/>
+      <c r="B168" s="34"/>
+      <c r="C168" s="37"/>
       <c r="D168" t="s">
         <v>42</v>
       </c>
@@ -22717,9 +22717,9 @@
       </c>
     </row>
     <row r="169" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A169" s="43"/>
-      <c r="B169" s="37"/>
-      <c r="C169" s="40"/>
+      <c r="A169" s="49"/>
+      <c r="B169" s="34"/>
+      <c r="C169" s="37"/>
       <c r="D169" t="s">
         <v>65</v>
       </c>
@@ -22824,9 +22824,9 @@
       </c>
     </row>
     <row r="170" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A170" s="43"/>
-      <c r="B170" s="37"/>
-      <c r="C170" s="40">
+      <c r="A170" s="49"/>
+      <c r="B170" s="34"/>
+      <c r="C170" s="37">
         <v>2050</v>
       </c>
       <c r="D170" t="s">
@@ -22933,9 +22933,9 @@
       </c>
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A171" s="43"/>
-      <c r="B171" s="37"/>
-      <c r="C171" s="40"/>
+      <c r="A171" s="49"/>
+      <c r="B171" s="34"/>
+      <c r="C171" s="37"/>
       <c r="D171" t="s">
         <v>42</v>
       </c>
@@ -23040,9 +23040,9 @@
       </c>
     </row>
     <row r="172" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="43"/>
-      <c r="B172" s="38"/>
-      <c r="C172" s="41"/>
+      <c r="A172" s="49"/>
+      <c r="B172" s="35"/>
+      <c r="C172" s="38"/>
       <c r="D172" s="3" t="s">
         <v>65</v>
       </c>
@@ -23147,11 +23147,11 @@
       </c>
     </row>
     <row r="173" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A173" s="43"/>
-      <c r="B173" s="36" t="s">
+      <c r="A173" s="49"/>
+      <c r="B173" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C173" s="39">
+      <c r="C173" s="36">
         <v>2015</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -23258,9 +23258,9 @@
       </c>
     </row>
     <row r="174" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A174" s="43"/>
-      <c r="B174" s="37"/>
-      <c r="C174" s="40"/>
+      <c r="A174" s="49"/>
+      <c r="B174" s="34"/>
+      <c r="C174" s="37"/>
       <c r="D174" t="s">
         <v>42</v>
       </c>
@@ -23365,9 +23365,9 @@
       </c>
     </row>
     <row r="175" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A175" s="43"/>
-      <c r="B175" s="37"/>
-      <c r="C175" s="40"/>
+      <c r="A175" s="49"/>
+      <c r="B175" s="34"/>
+      <c r="C175" s="37"/>
       <c r="D175" t="s">
         <v>65</v>
       </c>
@@ -23472,9 +23472,9 @@
       </c>
     </row>
     <row r="176" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A176" s="43"/>
-      <c r="B176" s="37"/>
-      <c r="C176" s="40">
+      <c r="A176" s="49"/>
+      <c r="B176" s="34"/>
+      <c r="C176" s="37">
         <v>2030</v>
       </c>
       <c r="D176" t="s">
@@ -23581,9 +23581,9 @@
       </c>
     </row>
     <row r="177" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A177" s="43"/>
-      <c r="B177" s="37"/>
-      <c r="C177" s="40"/>
+      <c r="A177" s="49"/>
+      <c r="B177" s="34"/>
+      <c r="C177" s="37"/>
       <c r="D177" t="s">
         <v>42</v>
       </c>
@@ -23688,9 +23688,9 @@
       </c>
     </row>
     <row r="178" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A178" s="43"/>
-      <c r="B178" s="37"/>
-      <c r="C178" s="40"/>
+      <c r="A178" s="49"/>
+      <c r="B178" s="34"/>
+      <c r="C178" s="37"/>
       <c r="D178" t="s">
         <v>65</v>
       </c>
@@ -23795,9 +23795,9 @@
       </c>
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A179" s="43"/>
-      <c r="B179" s="37"/>
-      <c r="C179" s="40">
+      <c r="A179" s="49"/>
+      <c r="B179" s="34"/>
+      <c r="C179" s="37">
         <v>2050</v>
       </c>
       <c r="D179" t="s">
@@ -23904,9 +23904,9 @@
       </c>
     </row>
     <row r="180" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A180" s="43"/>
-      <c r="B180" s="37"/>
-      <c r="C180" s="40"/>
+      <c r="A180" s="49"/>
+      <c r="B180" s="34"/>
+      <c r="C180" s="37"/>
       <c r="D180" t="s">
         <v>42</v>
       </c>
@@ -24011,9 +24011,9 @@
       </c>
     </row>
     <row r="181" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="43"/>
-      <c r="B181" s="38"/>
-      <c r="C181" s="41"/>
+      <c r="A181" s="49"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="38"/>
       <c r="D181" s="3" t="s">
         <v>65</v>
       </c>
@@ -24118,11 +24118,11 @@
       </c>
     </row>
     <row r="182" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A182" s="43"/>
-      <c r="B182" s="36" t="s">
+      <c r="A182" s="49"/>
+      <c r="B182" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C182" s="39">
+      <c r="C182" s="36">
         <v>2015</v>
       </c>
       <c r="D182" s="2" t="s">
@@ -24229,9 +24229,9 @@
       </c>
     </row>
     <row r="183" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A183" s="43"/>
-      <c r="B183" s="37"/>
-      <c r="C183" s="40"/>
+      <c r="A183" s="49"/>
+      <c r="B183" s="34"/>
+      <c r="C183" s="37"/>
       <c r="D183" t="s">
         <v>42</v>
       </c>
@@ -24336,9 +24336,9 @@
       </c>
     </row>
     <row r="184" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A184" s="43"/>
-      <c r="B184" s="37"/>
-      <c r="C184" s="40"/>
+      <c r="A184" s="49"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="37"/>
       <c r="D184" t="s">
         <v>65</v>
       </c>
@@ -24443,9 +24443,9 @@
       </c>
     </row>
     <row r="185" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A185" s="43"/>
-      <c r="B185" s="37"/>
-      <c r="C185" s="40">
+      <c r="A185" s="49"/>
+      <c r="B185" s="34"/>
+      <c r="C185" s="37">
         <v>2030</v>
       </c>
       <c r="D185" t="s">
@@ -24552,9 +24552,9 @@
       </c>
     </row>
     <row r="186" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A186" s="43"/>
-      <c r="B186" s="37"/>
-      <c r="C186" s="40"/>
+      <c r="A186" s="49"/>
+      <c r="B186" s="34"/>
+      <c r="C186" s="37"/>
       <c r="D186" t="s">
         <v>42</v>
       </c>
@@ -24659,9 +24659,9 @@
       </c>
     </row>
     <row r="187" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A187" s="43"/>
-      <c r="B187" s="37"/>
-      <c r="C187" s="40"/>
+      <c r="A187" s="49"/>
+      <c r="B187" s="34"/>
+      <c r="C187" s="37"/>
       <c r="D187" t="s">
         <v>65</v>
       </c>
@@ -24766,9 +24766,9 @@
       </c>
     </row>
     <row r="188" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A188" s="43"/>
-      <c r="B188" s="37"/>
-      <c r="C188" s="40">
+      <c r="A188" s="49"/>
+      <c r="B188" s="34"/>
+      <c r="C188" s="37">
         <v>2050</v>
       </c>
       <c r="D188" t="s">
@@ -24875,9 +24875,9 @@
       </c>
     </row>
     <row r="189" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A189" s="43"/>
-      <c r="B189" s="37"/>
-      <c r="C189" s="40"/>
+      <c r="A189" s="49"/>
+      <c r="B189" s="34"/>
+      <c r="C189" s="37"/>
       <c r="D189" t="s">
         <v>42</v>
       </c>
@@ -24982,9 +24982,9 @@
       </c>
     </row>
     <row r="190" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="43"/>
-      <c r="B190" s="38"/>
-      <c r="C190" s="41"/>
+      <c r="A190" s="49"/>
+      <c r="B190" s="35"/>
+      <c r="C190" s="38"/>
       <c r="D190" s="3" t="s">
         <v>65</v>
       </c>
@@ -25089,11 +25089,11 @@
       </c>
     </row>
     <row r="191" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A191" s="43"/>
-      <c r="B191" s="36" t="s">
+      <c r="A191" s="49"/>
+      <c r="B191" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C191" s="39">
+      <c r="C191" s="36">
         <v>2015</v>
       </c>
       <c r="D191" s="2" t="s">
@@ -25200,9 +25200,9 @@
       </c>
     </row>
     <row r="192" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A192" s="43"/>
-      <c r="B192" s="37"/>
-      <c r="C192" s="40"/>
+      <c r="A192" s="49"/>
+      <c r="B192" s="34"/>
+      <c r="C192" s="37"/>
       <c r="D192" t="s">
         <v>42</v>
       </c>
@@ -25307,9 +25307,9 @@
       </c>
     </row>
     <row r="193" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A193" s="43"/>
-      <c r="B193" s="37"/>
-      <c r="C193" s="40"/>
+      <c r="A193" s="49"/>
+      <c r="B193" s="34"/>
+      <c r="C193" s="37"/>
       <c r="D193" t="s">
         <v>65</v>
       </c>
@@ -25414,9 +25414,9 @@
       </c>
     </row>
     <row r="194" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A194" s="43"/>
-      <c r="B194" s="37"/>
-      <c r="C194" s="40">
+      <c r="A194" s="49"/>
+      <c r="B194" s="34"/>
+      <c r="C194" s="37">
         <v>2030</v>
       </c>
       <c r="D194" t="s">
@@ -25523,9 +25523,9 @@
       </c>
     </row>
     <row r="195" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A195" s="43"/>
-      <c r="B195" s="37"/>
-      <c r="C195" s="40"/>
+      <c r="A195" s="49"/>
+      <c r="B195" s="34"/>
+      <c r="C195" s="37"/>
       <c r="D195" t="s">
         <v>42</v>
       </c>
@@ -25630,9 +25630,9 @@
       </c>
     </row>
     <row r="196" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A196" s="43"/>
-      <c r="B196" s="37"/>
-      <c r="C196" s="40"/>
+      <c r="A196" s="49"/>
+      <c r="B196" s="34"/>
+      <c r="C196" s="37"/>
       <c r="D196" t="s">
         <v>65</v>
       </c>
@@ -25737,9 +25737,9 @@
       </c>
     </row>
     <row r="197" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A197" s="43"/>
-      <c r="B197" s="37"/>
-      <c r="C197" s="40">
+      <c r="A197" s="49"/>
+      <c r="B197" s="34"/>
+      <c r="C197" s="37">
         <v>2050</v>
       </c>
       <c r="D197" t="s">
@@ -25846,9 +25846,9 @@
       </c>
     </row>
     <row r="198" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A198" s="43"/>
-      <c r="B198" s="37"/>
-      <c r="C198" s="40"/>
+      <c r="A198" s="49"/>
+      <c r="B198" s="34"/>
+      <c r="C198" s="37"/>
       <c r="D198" t="s">
         <v>42</v>
       </c>
@@ -25953,9 +25953,9 @@
       </c>
     </row>
     <row r="199" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="43"/>
-      <c r="B199" s="38"/>
-      <c r="C199" s="41"/>
+      <c r="A199" s="49"/>
+      <c r="B199" s="35"/>
+      <c r="C199" s="38"/>
       <c r="D199" s="3" t="s">
         <v>65</v>
       </c>
@@ -26060,11 +26060,11 @@
       </c>
     </row>
     <row r="200" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A200" s="43"/>
-      <c r="B200" s="36" t="s">
+      <c r="A200" s="49"/>
+      <c r="B200" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C200" s="39">
+      <c r="C200" s="36">
         <v>2015</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -26171,9 +26171,9 @@
       </c>
     </row>
     <row r="201" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A201" s="43"/>
-      <c r="B201" s="37"/>
-      <c r="C201" s="40"/>
+      <c r="A201" s="49"/>
+      <c r="B201" s="34"/>
+      <c r="C201" s="37"/>
       <c r="D201" t="s">
         <v>42</v>
       </c>
@@ -26278,9 +26278,9 @@
       </c>
     </row>
     <row r="202" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A202" s="43"/>
-      <c r="B202" s="37"/>
-      <c r="C202" s="40"/>
+      <c r="A202" s="49"/>
+      <c r="B202" s="34"/>
+      <c r="C202" s="37"/>
       <c r="D202" t="s">
         <v>65</v>
       </c>
@@ -26385,9 +26385,9 @@
       </c>
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A203" s="43"/>
-      <c r="B203" s="37"/>
-      <c r="C203" s="40">
+      <c r="A203" s="49"/>
+      <c r="B203" s="34"/>
+      <c r="C203" s="37">
         <v>2030</v>
       </c>
       <c r="D203" t="s">
@@ -26494,9 +26494,9 @@
       </c>
     </row>
     <row r="204" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A204" s="43"/>
-      <c r="B204" s="37"/>
-      <c r="C204" s="40"/>
+      <c r="A204" s="49"/>
+      <c r="B204" s="34"/>
+      <c r="C204" s="37"/>
       <c r="D204" t="s">
         <v>42</v>
       </c>
@@ -26601,9 +26601,9 @@
       </c>
     </row>
     <row r="205" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A205" s="43"/>
-      <c r="B205" s="37"/>
-      <c r="C205" s="40"/>
+      <c r="A205" s="49"/>
+      <c r="B205" s="34"/>
+      <c r="C205" s="37"/>
       <c r="D205" t="s">
         <v>65</v>
       </c>
@@ -26708,9 +26708,9 @@
       </c>
     </row>
     <row r="206" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A206" s="43"/>
-      <c r="B206" s="37"/>
-      <c r="C206" s="40">
+      <c r="A206" s="49"/>
+      <c r="B206" s="34"/>
+      <c r="C206" s="37">
         <v>2050</v>
       </c>
       <c r="D206" t="s">
@@ -26817,9 +26817,9 @@
       </c>
     </row>
     <row r="207" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A207" s="43"/>
-      <c r="B207" s="37"/>
-      <c r="C207" s="40"/>
+      <c r="A207" s="49"/>
+      <c r="B207" s="34"/>
+      <c r="C207" s="37"/>
       <c r="D207" t="s">
         <v>42</v>
       </c>
@@ -26924,9 +26924,9 @@
       </c>
     </row>
     <row r="208" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="43"/>
-      <c r="B208" s="38"/>
-      <c r="C208" s="41"/>
+      <c r="A208" s="49"/>
+      <c r="B208" s="35"/>
+      <c r="C208" s="38"/>
       <c r="D208" s="3" t="s">
         <v>65</v>
       </c>
@@ -27031,11 +27031,11 @@
       </c>
     </row>
     <row r="209" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A209" s="43"/>
-      <c r="B209" s="36" t="s">
+      <c r="A209" s="49"/>
+      <c r="B209" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C209" s="39">
+      <c r="C209" s="36">
         <v>2015</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -27142,9 +27142,9 @@
       </c>
     </row>
     <row r="210" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A210" s="43"/>
-      <c r="B210" s="37"/>
-      <c r="C210" s="40"/>
+      <c r="A210" s="49"/>
+      <c r="B210" s="34"/>
+      <c r="C210" s="37"/>
       <c r="D210" t="s">
         <v>42</v>
       </c>
@@ -27249,9 +27249,9 @@
       </c>
     </row>
     <row r="211" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A211" s="43"/>
-      <c r="B211" s="37"/>
-      <c r="C211" s="40"/>
+      <c r="A211" s="49"/>
+      <c r="B211" s="34"/>
+      <c r="C211" s="37"/>
       <c r="D211" t="s">
         <v>65</v>
       </c>
@@ -27356,9 +27356,9 @@
       </c>
     </row>
     <row r="212" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A212" s="43"/>
-      <c r="B212" s="37"/>
-      <c r="C212" s="40">
+      <c r="A212" s="49"/>
+      <c r="B212" s="34"/>
+      <c r="C212" s="37">
         <v>2030</v>
       </c>
       <c r="D212" t="s">
@@ -27465,9 +27465,9 @@
       </c>
     </row>
     <row r="213" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A213" s="43"/>
-      <c r="B213" s="37"/>
-      <c r="C213" s="40"/>
+      <c r="A213" s="49"/>
+      <c r="B213" s="34"/>
+      <c r="C213" s="37"/>
       <c r="D213" t="s">
         <v>42</v>
       </c>
@@ -27572,9 +27572,9 @@
       </c>
     </row>
     <row r="214" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A214" s="43"/>
-      <c r="B214" s="37"/>
-      <c r="C214" s="40"/>
+      <c r="A214" s="49"/>
+      <c r="B214" s="34"/>
+      <c r="C214" s="37"/>
       <c r="D214" t="s">
         <v>65</v>
       </c>
@@ -27679,9 +27679,9 @@
       </c>
     </row>
     <row r="215" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A215" s="43"/>
-      <c r="B215" s="37"/>
-      <c r="C215" s="40">
+      <c r="A215" s="49"/>
+      <c r="B215" s="34"/>
+      <c r="C215" s="37">
         <v>2050</v>
       </c>
       <c r="D215" t="s">
@@ -27788,9 +27788,9 @@
       </c>
     </row>
     <row r="216" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A216" s="43"/>
-      <c r="B216" s="37"/>
-      <c r="C216" s="40"/>
+      <c r="A216" s="49"/>
+      <c r="B216" s="34"/>
+      <c r="C216" s="37"/>
       <c r="D216" t="s">
         <v>42</v>
       </c>
@@ -27895,9 +27895,9 @@
       </c>
     </row>
     <row r="217" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="44"/>
-      <c r="B217" s="38"/>
-      <c r="C217" s="41"/>
+      <c r="A217" s="50"/>
+      <c r="B217" s="35"/>
+      <c r="C217" s="38"/>
       <c r="D217" s="3" t="s">
         <v>65</v>
       </c>
@@ -28003,6 +28003,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B164:B172"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="C167:C169"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="A146:A217"/>
+    <mergeCell ref="B146:B154"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="B155:B163"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="B92:B100"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="A74:A145"/>
+    <mergeCell ref="B74:B82"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="B137:B145"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A2:A73"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B173:B181"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="B182:B190"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="C188:C190"/>
+    <mergeCell ref="B209:B217"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="C191:C193"/>
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="B200:B208"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="C206:C208"/>
+    <mergeCell ref="B191:B199"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="B101:B109"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
     <mergeCell ref="B128:B136"/>
     <mergeCell ref="C128:C130"/>
     <mergeCell ref="C131:C133"/>
@@ -28019,90 +28103,6 @@
     <mergeCell ref="C113:C115"/>
     <mergeCell ref="C116:C118"/>
     <mergeCell ref="B119:B127"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="B101:B109"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B209:B217"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="C191:C193"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="B200:B208"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="C203:C205"/>
-    <mergeCell ref="C206:C208"/>
-    <mergeCell ref="B191:B199"/>
-    <mergeCell ref="B173:B181"/>
-    <mergeCell ref="C173:C175"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="B182:B190"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="C188:C190"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A2:A73"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="A74:A145"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="B137:B145"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B164:B172"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="C167:C169"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="A146:A217"/>
-    <mergeCell ref="B146:B154"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="B155:B163"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="B92:B100"/>
-    <mergeCell ref="C92:C94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -28113,8 +28113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3497A4D-8C30-42C3-BC90-66DE8729139C}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/fuel_prices.xlsx
+++ b/data/fuel_prices.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="44" documentId="8_{B4DB5CEF-82BA-4E93-8F43-2C22F33E7EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C48DF2D-EF8B-4024-A522-B580DF99F191}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of content" sheetId="2" r:id="rId1"/>
@@ -599,6 +599,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -616,13 +625,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,22 +643,13 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -3110,7 +3110,7 @@
   <dimension ref="A8:O43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="D36" sqref="D36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3550,12 +3550,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3666,13 +3666,13 @@
       </c>
     </row>
     <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="39">
         <v>2015</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3794,9 +3794,9 @@
       </c>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="37"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="40"/>
       <c r="D3" t="s">
         <v>42</v>
       </c>
@@ -3916,9 +3916,9 @@
       </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="40"/>
       <c r="D4" t="s">
         <v>65</v>
       </c>
@@ -4038,9 +4038,9 @@
       </c>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="37">
+      <c r="A5" s="49"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="40">
         <v>2030</v>
       </c>
       <c r="D5" t="s">
@@ -4147,9 +4147,9 @@
       </c>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="40"/>
       <c r="D6" t="s">
         <v>42</v>
       </c>
@@ -4365,9 +4365,9 @@
       </c>
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="40"/>
       <c r="D7" t="s">
         <v>65</v>
       </c>
@@ -4619,9 +4619,9 @@
       </c>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="37">
+      <c r="A8" s="49"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="40">
         <v>2050</v>
       </c>
       <c r="D8" t="s">
@@ -4872,9 +4872,9 @@
       </c>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="40"/>
       <c r="D9" t="s">
         <v>42</v>
       </c>
@@ -5123,9 +5123,9 @@
       </c>
     </row>
     <row r="10" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="3" t="s">
         <v>65</v>
       </c>
@@ -5374,11 +5374,11 @@
       </c>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="39">
         <v>2015</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5632,9 +5632,9 @@
       </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="40"/>
       <c r="D12" t="s">
         <v>42</v>
       </c>
@@ -5883,9 +5883,9 @@
       </c>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="40"/>
       <c r="D13" t="s">
         <v>65</v>
       </c>
@@ -5990,9 +5990,9 @@
       </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="37">
+      <c r="A14" s="49"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="40">
         <v>2030</v>
       </c>
       <c r="D14" t="s">
@@ -6099,9 +6099,9 @@
       </c>
     </row>
     <row r="15" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="40"/>
       <c r="D15" t="s">
         <v>42</v>
       </c>
@@ -6206,9 +6206,9 @@
       </c>
     </row>
     <row r="16" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="40"/>
       <c r="D16" t="s">
         <v>65</v>
       </c>
@@ -6313,9 +6313,9 @@
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="37">
+      <c r="A17" s="49"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="40">
         <v>2050</v>
       </c>
       <c r="D17" t="s">
@@ -6422,9 +6422,9 @@
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="40"/>
       <c r="D18" t="s">
         <v>42</v>
       </c>
@@ -6529,9 +6529,9 @@
       </c>
     </row>
     <row r="19" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="38"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="3" t="s">
         <v>65</v>
       </c>
@@ -6636,11 +6636,11 @@
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="33" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="39">
         <v>2015</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -6747,9 +6747,9 @@
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="40"/>
       <c r="D21" t="s">
         <v>42</v>
       </c>
@@ -6854,9 +6854,9 @@
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="40"/>
       <c r="D22" t="s">
         <v>65</v>
       </c>
@@ -6961,9 +6961,9 @@
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="37">
+      <c r="A23" s="49"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="40">
         <v>2030</v>
       </c>
       <c r="D23" t="s">
@@ -7070,9 +7070,9 @@
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="40"/>
       <c r="D24" t="s">
         <v>42</v>
       </c>
@@ -7177,9 +7177,9 @@
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="40"/>
       <c r="D25" t="s">
         <v>65</v>
       </c>
@@ -7284,9 +7284,9 @@
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="37">
+      <c r="A26" s="49"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="40">
         <v>2050</v>
       </c>
       <c r="D26" t="s">
@@ -7393,9 +7393,9 @@
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="40"/>
       <c r="D27" t="s">
         <v>42</v>
       </c>
@@ -7500,9 +7500,9 @@
       </c>
     </row>
     <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="38"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="3" t="s">
         <v>65</v>
       </c>
@@ -7607,11 +7607,11 @@
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="33" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="39">
         <v>2015</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -7718,9 +7718,9 @@
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="40"/>
       <c r="D30" t="s">
         <v>42</v>
       </c>
@@ -7825,9 +7825,9 @@
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="40"/>
       <c r="D31" t="s">
         <v>65</v>
       </c>
@@ -7932,9 +7932,9 @@
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="37">
+      <c r="A32" s="49"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="40">
         <v>2030</v>
       </c>
       <c r="D32" t="s">
@@ -8041,9 +8041,9 @@
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="40"/>
       <c r="D33" t="s">
         <v>42</v>
       </c>
@@ -8148,9 +8148,9 @@
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="40"/>
       <c r="D34" t="s">
         <v>65</v>
       </c>
@@ -8255,9 +8255,9 @@
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="37">
+      <c r="A35" s="49"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="40">
         <v>2050</v>
       </c>
       <c r="D35" t="s">
@@ -8364,9 +8364,9 @@
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="37"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="40"/>
       <c r="D36" t="s">
         <v>42</v>
       </c>
@@ -8471,9 +8471,9 @@
       </c>
     </row>
     <row r="37" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="38"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="3" t="s">
         <v>65</v>
       </c>
@@ -8578,11 +8578,11 @@
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="33" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="39">
         <v>2015</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -8689,9 +8689,9 @@
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="37"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="40"/>
       <c r="D39" t="s">
         <v>42</v>
       </c>
@@ -8796,9 +8796,9 @@
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="37"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="40"/>
       <c r="D40" t="s">
         <v>65</v>
       </c>
@@ -8903,9 +8903,9 @@
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="37">
+      <c r="A41" s="49"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="40">
         <v>2030</v>
       </c>
       <c r="D41" t="s">
@@ -9012,9 +9012,9 @@
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="37"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="40"/>
       <c r="D42" t="s">
         <v>42</v>
       </c>
@@ -9119,9 +9119,9 @@
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="37"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="40"/>
       <c r="D43" t="s">
         <v>65</v>
       </c>
@@ -9226,9 +9226,9 @@
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="37">
+      <c r="A44" s="49"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="40">
         <v>2050</v>
       </c>
       <c r="D44" t="s">
@@ -9335,9 +9335,9 @@
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="37"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="40"/>
       <c r="D45" t="s">
         <v>42</v>
       </c>
@@ -9442,9 +9442,9 @@
       </c>
     </row>
     <row r="46" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="38"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="3" t="s">
         <v>65</v>
       </c>
@@ -9549,11 +9549,11 @@
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="33" t="s">
+      <c r="A47" s="49"/>
+      <c r="B47" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="39">
         <v>2015</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -9660,9 +9660,9 @@
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="37"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="40"/>
       <c r="D48" t="s">
         <v>42</v>
       </c>
@@ -9767,9 +9767,9 @@
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="37"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="40"/>
       <c r="D49" t="s">
         <v>65</v>
       </c>
@@ -9874,9 +9874,9 @@
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="37">
+      <c r="A50" s="49"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="40">
         <v>2030</v>
       </c>
       <c r="D50" t="s">
@@ -9983,9 +9983,9 @@
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="37"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="40"/>
       <c r="D51" t="s">
         <v>42</v>
       </c>
@@ -10090,9 +10090,9 @@
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="37"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="40"/>
       <c r="D52" t="s">
         <v>65</v>
       </c>
@@ -10197,9 +10197,9 @@
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="37">
+      <c r="A53" s="49"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="40">
         <v>2050</v>
       </c>
       <c r="D53" t="s">
@@ -10306,9 +10306,9 @@
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="37"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="40"/>
       <c r="D54" t="s">
         <v>42</v>
       </c>
@@ -10413,9 +10413,9 @@
       </c>
     </row>
     <row r="55" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="38"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="3" t="s">
         <v>65</v>
       </c>
@@ -10520,11 +10520,11 @@
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="33" t="s">
+      <c r="A56" s="49"/>
+      <c r="B56" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C56" s="39">
         <v>2015</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -10631,9 +10631,9 @@
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="37"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="40"/>
       <c r="D57" t="s">
         <v>42</v>
       </c>
@@ -10738,9 +10738,9 @@
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="37"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="40"/>
       <c r="D58" t="s">
         <v>65</v>
       </c>
@@ -10845,9 +10845,9 @@
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="37">
+      <c r="A59" s="49"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="40">
         <v>2030</v>
       </c>
       <c r="D59" t="s">
@@ -10954,9 +10954,9 @@
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="37"/>
+      <c r="A60" s="49"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="40"/>
       <c r="D60" t="s">
         <v>42</v>
       </c>
@@ -11061,9 +11061,9 @@
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="37"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="40"/>
       <c r="D61" t="s">
         <v>65</v>
       </c>
@@ -11168,9 +11168,9 @@
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="37">
+      <c r="A62" s="49"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="40">
         <v>2050</v>
       </c>
       <c r="D62" t="s">
@@ -11277,9 +11277,9 @@
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="37"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="40"/>
       <c r="D63" t="s">
         <v>42</v>
       </c>
@@ -11384,9 +11384,9 @@
       </c>
     </row>
     <row r="64" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="38"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="3" t="s">
         <v>65</v>
       </c>
@@ -11491,11 +11491,11 @@
       </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="33" t="s">
+      <c r="A65" s="49"/>
+      <c r="B65" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C65" s="39">
         <v>2015</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -11602,9 +11602,9 @@
       </c>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="34"/>
-      <c r="C66" s="37"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="40"/>
       <c r="D66" t="s">
         <v>42</v>
       </c>
@@ -11709,9 +11709,9 @@
       </c>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="37"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="40"/>
       <c r="D67" t="s">
         <v>65</v>
       </c>
@@ -11816,9 +11816,9 @@
       </c>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="37">
+      <c r="A68" s="49"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="40">
         <v>2030</v>
       </c>
       <c r="D68" t="s">
@@ -11925,9 +11925,9 @@
       </c>
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="37"/>
+      <c r="A69" s="49"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="40"/>
       <c r="D69" t="s">
         <v>42</v>
       </c>
@@ -12032,9 +12032,9 @@
       </c>
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="37"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="40"/>
       <c r="D70" t="s">
         <v>65</v>
       </c>
@@ -12139,9 +12139,9 @@
       </c>
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="34"/>
-      <c r="C71" s="37">
+      <c r="A71" s="49"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="40">
         <v>2050</v>
       </c>
       <c r="D71" t="s">
@@ -12248,9 +12248,9 @@
       </c>
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="37"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="40"/>
       <c r="D72" t="s">
         <v>42</v>
       </c>
@@ -12355,9 +12355,9 @@
       </c>
     </row>
     <row r="73" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="38"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="41"/>
       <c r="D73" s="3" t="s">
         <v>65</v>
       </c>
@@ -12462,13 +12462,13 @@
       </c>
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="36">
+      <c r="C74" s="39">
         <v>2015</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -12575,9 +12575,9 @@
       </c>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="37"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="40"/>
       <c r="D75" t="s">
         <v>42</v>
       </c>
@@ -12682,9 +12682,9 @@
       </c>
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="37"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="40"/>
       <c r="D76" t="s">
         <v>65</v>
       </c>
@@ -12789,9 +12789,9 @@
       </c>
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="37">
+      <c r="A77" s="46"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="40">
         <v>2030</v>
       </c>
       <c r="D77" t="s">
@@ -12898,9 +12898,9 @@
       </c>
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="37"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="40"/>
       <c r="D78" t="s">
         <v>42</v>
       </c>
@@ -13005,9 +13005,9 @@
       </c>
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A79" s="43"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="37"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="40"/>
       <c r="D79" t="s">
         <v>65</v>
       </c>
@@ -13112,9 +13112,9 @@
       </c>
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="37">
+      <c r="A80" s="46"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="40">
         <v>2050</v>
       </c>
       <c r="D80" t="s">
@@ -13221,9 +13221,9 @@
       </c>
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A81" s="43"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="37"/>
+      <c r="A81" s="46"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="40"/>
       <c r="D81" t="s">
         <v>42</v>
       </c>
@@ -13328,9 +13328,9 @@
       </c>
     </row>
     <row r="82" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="43"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="38"/>
+      <c r="A82" s="46"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="41"/>
       <c r="D82" s="3" t="s">
         <v>65</v>
       </c>
@@ -13435,11 +13435,11 @@
       </c>
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
-      <c r="B83" s="33" t="s">
+      <c r="A83" s="46"/>
+      <c r="B83" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="36">
+      <c r="C83" s="39">
         <v>2015</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -13546,9 +13546,9 @@
       </c>
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A84" s="43"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="37"/>
+      <c r="A84" s="46"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="40"/>
       <c r="D84" t="s">
         <v>42</v>
       </c>
@@ -13653,9 +13653,9 @@
       </c>
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A85" s="43"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="37"/>
+      <c r="A85" s="46"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="40"/>
       <c r="D85" t="s">
         <v>65</v>
       </c>
@@ -13760,9 +13760,9 @@
       </c>
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A86" s="43"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="37">
+      <c r="A86" s="46"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="40">
         <v>2030</v>
       </c>
       <c r="D86" t="s">
@@ -13869,9 +13869,9 @@
       </c>
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A87" s="43"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="37"/>
+      <c r="A87" s="46"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="40"/>
       <c r="D87" t="s">
         <v>42</v>
       </c>
@@ -13976,9 +13976,9 @@
       </c>
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A88" s="43"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="37"/>
+      <c r="A88" s="46"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="40"/>
       <c r="D88" t="s">
         <v>65</v>
       </c>
@@ -14083,9 +14083,9 @@
       </c>
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="37">
+      <c r="A89" s="46"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="40">
         <v>2050</v>
       </c>
       <c r="D89" t="s">
@@ -14192,9 +14192,9 @@
       </c>
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="37"/>
+      <c r="A90" s="46"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="40"/>
       <c r="D90" t="s">
         <v>42</v>
       </c>
@@ -14299,9 +14299,9 @@
       </c>
     </row>
     <row r="91" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="43"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="38"/>
+      <c r="A91" s="46"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="41"/>
       <c r="D91" s="3" t="s">
         <v>65</v>
       </c>
@@ -14406,11 +14406,11 @@
       </c>
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
-      <c r="B92" s="33" t="s">
+      <c r="A92" s="46"/>
+      <c r="B92" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="36">
+      <c r="C92" s="39">
         <v>2015</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -14517,9 +14517,9 @@
       </c>
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A93" s="43"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="37"/>
+      <c r="A93" s="46"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="40"/>
       <c r="D93" t="s">
         <v>42</v>
       </c>
@@ -14624,9 +14624,9 @@
       </c>
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="37"/>
+      <c r="A94" s="46"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="40"/>
       <c r="D94" t="s">
         <v>65</v>
       </c>
@@ -14731,9 +14731,9 @@
       </c>
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="37">
+      <c r="A95" s="46"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="40">
         <v>2030</v>
       </c>
       <c r="D95" t="s">
@@ -14840,9 +14840,9 @@
       </c>
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A96" s="43"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="37"/>
+      <c r="A96" s="46"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="40"/>
       <c r="D96" t="s">
         <v>42</v>
       </c>
@@ -14947,9 +14947,9 @@
       </c>
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A97" s="43"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="37"/>
+      <c r="A97" s="46"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="40"/>
       <c r="D97" t="s">
         <v>65</v>
       </c>
@@ -15054,9 +15054,9 @@
       </c>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="34"/>
-      <c r="C98" s="37">
+      <c r="A98" s="46"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="40">
         <v>2050</v>
       </c>
       <c r="D98" t="s">
@@ -15163,9 +15163,9 @@
       </c>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="37"/>
+      <c r="A99" s="46"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="40"/>
       <c r="D99" t="s">
         <v>42</v>
       </c>
@@ -15270,9 +15270,9 @@
       </c>
     </row>
     <row r="100" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="43"/>
-      <c r="B100" s="35"/>
-      <c r="C100" s="38"/>
+      <c r="A100" s="46"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="41"/>
       <c r="D100" s="3" t="s">
         <v>65</v>
       </c>
@@ -15377,11 +15377,11 @@
       </c>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A101" s="43"/>
-      <c r="B101" s="33" t="s">
+      <c r="A101" s="46"/>
+      <c r="B101" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="36">
+      <c r="C101" s="39">
         <v>2015</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -15488,9 +15488,9 @@
       </c>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A102" s="43"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="37"/>
+      <c r="A102" s="46"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="40"/>
       <c r="D102" t="s">
         <v>42</v>
       </c>
@@ -15595,9 +15595,9 @@
       </c>
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A103" s="43"/>
-      <c r="B103" s="34"/>
-      <c r="C103" s="37"/>
+      <c r="A103" s="46"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="40"/>
       <c r="D103" t="s">
         <v>65</v>
       </c>
@@ -15702,9 +15702,9 @@
       </c>
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A104" s="43"/>
-      <c r="B104" s="34"/>
-      <c r="C104" s="37">
+      <c r="A104" s="46"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="40">
         <v>2030</v>
       </c>
       <c r="D104" t="s">
@@ -15811,9 +15811,9 @@
       </c>
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="37"/>
+      <c r="A105" s="46"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="40"/>
       <c r="D105" t="s">
         <v>42</v>
       </c>
@@ -15918,9 +15918,9 @@
       </c>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A106" s="43"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="37"/>
+      <c r="A106" s="46"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="40"/>
       <c r="D106" t="s">
         <v>65</v>
       </c>
@@ -16025,9 +16025,9 @@
       </c>
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A107" s="43"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="37">
+      <c r="A107" s="46"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="40">
         <v>2050</v>
       </c>
       <c r="D107" t="s">
@@ -16134,9 +16134,9 @@
       </c>
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A108" s="43"/>
-      <c r="B108" s="34"/>
-      <c r="C108" s="37"/>
+      <c r="A108" s="46"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="40"/>
       <c r="D108" t="s">
         <v>42</v>
       </c>
@@ -16241,9 +16241,9 @@
       </c>
     </row>
     <row r="109" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="43"/>
-      <c r="B109" s="35"/>
-      <c r="C109" s="38"/>
+      <c r="A109" s="46"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="41"/>
       <c r="D109" s="3" t="s">
         <v>65</v>
       </c>
@@ -16348,11 +16348,11 @@
       </c>
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A110" s="43"/>
-      <c r="B110" s="33" t="s">
+      <c r="A110" s="46"/>
+      <c r="B110" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="36">
+      <c r="C110" s="39">
         <v>2015</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -16459,9 +16459,9 @@
       </c>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A111" s="43"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="37"/>
+      <c r="A111" s="46"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="40"/>
       <c r="D111" t="s">
         <v>42</v>
       </c>
@@ -16566,9 +16566,9 @@
       </c>
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A112" s="43"/>
-      <c r="B112" s="34"/>
-      <c r="C112" s="37"/>
+      <c r="A112" s="46"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="40"/>
       <c r="D112" t="s">
         <v>65</v>
       </c>
@@ -16673,9 +16673,9 @@
       </c>
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A113" s="43"/>
-      <c r="B113" s="34"/>
-      <c r="C113" s="37">
+      <c r="A113" s="46"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="40">
         <v>2030</v>
       </c>
       <c r="D113" t="s">
@@ -16782,9 +16782,9 @@
       </c>
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A114" s="43"/>
-      <c r="B114" s="34"/>
-      <c r="C114" s="37"/>
+      <c r="A114" s="46"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="40"/>
       <c r="D114" t="s">
         <v>42</v>
       </c>
@@ -16889,9 +16889,9 @@
       </c>
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A115" s="43"/>
-      <c r="B115" s="34"/>
-      <c r="C115" s="37"/>
+      <c r="A115" s="46"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="40"/>
       <c r="D115" t="s">
         <v>65</v>
       </c>
@@ -16996,9 +16996,9 @@
       </c>
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A116" s="43"/>
-      <c r="B116" s="34"/>
-      <c r="C116" s="37">
+      <c r="A116" s="46"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="40">
         <v>2050</v>
       </c>
       <c r="D116" t="s">
@@ -17105,9 +17105,9 @@
       </c>
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A117" s="43"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="37"/>
+      <c r="A117" s="46"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="40"/>
       <c r="D117" t="s">
         <v>42</v>
       </c>
@@ -17212,9 +17212,9 @@
       </c>
     </row>
     <row r="118" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="43"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="38"/>
+      <c r="A118" s="46"/>
+      <c r="B118" s="38"/>
+      <c r="C118" s="41"/>
       <c r="D118" s="3" t="s">
         <v>65</v>
       </c>
@@ -17319,11 +17319,11 @@
       </c>
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A119" s="43"/>
-      <c r="B119" s="33" t="s">
+      <c r="A119" s="46"/>
+      <c r="B119" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C119" s="36">
+      <c r="C119" s="39">
         <v>2015</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -17430,9 +17430,9 @@
       </c>
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A120" s="43"/>
-      <c r="B120" s="34"/>
-      <c r="C120" s="37"/>
+      <c r="A120" s="46"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="40"/>
       <c r="D120" t="s">
         <v>42</v>
       </c>
@@ -17537,9 +17537,9 @@
       </c>
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A121" s="43"/>
-      <c r="B121" s="34"/>
-      <c r="C121" s="37"/>
+      <c r="A121" s="46"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="40"/>
       <c r="D121" t="s">
         <v>65</v>
       </c>
@@ -17644,9 +17644,9 @@
       </c>
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A122" s="43"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="37">
+      <c r="A122" s="46"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="40">
         <v>2030</v>
       </c>
       <c r="D122" t="s">
@@ -17753,9 +17753,9 @@
       </c>
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A123" s="43"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="37"/>
+      <c r="A123" s="46"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="40"/>
       <c r="D123" t="s">
         <v>42</v>
       </c>
@@ -17860,9 +17860,9 @@
       </c>
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A124" s="43"/>
-      <c r="B124" s="34"/>
-      <c r="C124" s="37"/>
+      <c r="A124" s="46"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="40"/>
       <c r="D124" t="s">
         <v>65</v>
       </c>
@@ -17967,9 +17967,9 @@
       </c>
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A125" s="43"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="37">
+      <c r="A125" s="46"/>
+      <c r="B125" s="37"/>
+      <c r="C125" s="40">
         <v>2050</v>
       </c>
       <c r="D125" t="s">
@@ -18076,9 +18076,9 @@
       </c>
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A126" s="43"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="37"/>
+      <c r="A126" s="46"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="40"/>
       <c r="D126" t="s">
         <v>42</v>
       </c>
@@ -18183,9 +18183,9 @@
       </c>
     </row>
     <row r="127" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="43"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="38"/>
+      <c r="A127" s="46"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="41"/>
       <c r="D127" s="3" t="s">
         <v>65</v>
       </c>
@@ -18290,11 +18290,11 @@
       </c>
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A128" s="43"/>
-      <c r="B128" s="33" t="s">
+      <c r="A128" s="46"/>
+      <c r="B128" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C128" s="36">
+      <c r="C128" s="39">
         <v>2015</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -18401,9 +18401,9 @@
       </c>
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A129" s="43"/>
-      <c r="B129" s="34"/>
-      <c r="C129" s="37"/>
+      <c r="A129" s="46"/>
+      <c r="B129" s="37"/>
+      <c r="C129" s="40"/>
       <c r="D129" t="s">
         <v>42</v>
       </c>
@@ -18508,9 +18508,9 @@
       </c>
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A130" s="43"/>
-      <c r="B130" s="34"/>
-      <c r="C130" s="37"/>
+      <c r="A130" s="46"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="40"/>
       <c r="D130" t="s">
         <v>65</v>
       </c>
@@ -18615,9 +18615,9 @@
       </c>
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A131" s="43"/>
-      <c r="B131" s="34"/>
-      <c r="C131" s="37">
+      <c r="A131" s="46"/>
+      <c r="B131" s="37"/>
+      <c r="C131" s="40">
         <v>2030</v>
       </c>
       <c r="D131" t="s">
@@ -18724,9 +18724,9 @@
       </c>
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A132" s="43"/>
-      <c r="B132" s="34"/>
-      <c r="C132" s="37"/>
+      <c r="A132" s="46"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="40"/>
       <c r="D132" t="s">
         <v>42</v>
       </c>
@@ -18831,9 +18831,9 @@
       </c>
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A133" s="43"/>
-      <c r="B133" s="34"/>
-      <c r="C133" s="37"/>
+      <c r="A133" s="46"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="40"/>
       <c r="D133" t="s">
         <v>65</v>
       </c>
@@ -18938,9 +18938,9 @@
       </c>
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A134" s="43"/>
-      <c r="B134" s="34"/>
-      <c r="C134" s="37">
+      <c r="A134" s="46"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="40">
         <v>2050</v>
       </c>
       <c r="D134" t="s">
@@ -19047,9 +19047,9 @@
       </c>
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A135" s="43"/>
-      <c r="B135" s="34"/>
-      <c r="C135" s="37"/>
+      <c r="A135" s="46"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="40"/>
       <c r="D135" t="s">
         <v>42</v>
       </c>
@@ -19154,9 +19154,9 @@
       </c>
     </row>
     <row r="136" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="43"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="38"/>
+      <c r="A136" s="46"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="41"/>
       <c r="D136" s="3" t="s">
         <v>65</v>
       </c>
@@ -19261,11 +19261,11 @@
       </c>
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A137" s="43"/>
-      <c r="B137" s="33" t="s">
+      <c r="A137" s="46"/>
+      <c r="B137" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="36">
+      <c r="C137" s="39">
         <v>2015</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -19372,9 +19372,9 @@
       </c>
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A138" s="43"/>
-      <c r="B138" s="34"/>
-      <c r="C138" s="37"/>
+      <c r="A138" s="46"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="40"/>
       <c r="D138" t="s">
         <v>42</v>
       </c>
@@ -19479,9 +19479,9 @@
       </c>
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A139" s="43"/>
-      <c r="B139" s="34"/>
-      <c r="C139" s="37"/>
+      <c r="A139" s="46"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="40"/>
       <c r="D139" t="s">
         <v>65</v>
       </c>
@@ -19586,9 +19586,9 @@
       </c>
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A140" s="43"/>
-      <c r="B140" s="34"/>
-      <c r="C140" s="37">
+      <c r="A140" s="46"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="40">
         <v>2030</v>
       </c>
       <c r="D140" t="s">
@@ -19695,9 +19695,9 @@
       </c>
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A141" s="43"/>
-      <c r="B141" s="34"/>
-      <c r="C141" s="37"/>
+      <c r="A141" s="46"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="40"/>
       <c r="D141" t="s">
         <v>42</v>
       </c>
@@ -19802,9 +19802,9 @@
       </c>
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A142" s="43"/>
-      <c r="B142" s="34"/>
-      <c r="C142" s="37"/>
+      <c r="A142" s="46"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="40"/>
       <c r="D142" t="s">
         <v>65</v>
       </c>
@@ -19909,9 +19909,9 @@
       </c>
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A143" s="43"/>
-      <c r="B143" s="34"/>
-      <c r="C143" s="37">
+      <c r="A143" s="46"/>
+      <c r="B143" s="37"/>
+      <c r="C143" s="40">
         <v>2050</v>
       </c>
       <c r="D143" t="s">
@@ -20018,9 +20018,9 @@
       </c>
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A144" s="43"/>
-      <c r="B144" s="34"/>
-      <c r="C144" s="37"/>
+      <c r="A144" s="46"/>
+      <c r="B144" s="37"/>
+      <c r="C144" s="40"/>
       <c r="D144" t="s">
         <v>42</v>
       </c>
@@ -20125,9 +20125,9 @@
       </c>
     </row>
     <row r="145" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="44"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="38"/>
+      <c r="A145" s="47"/>
+      <c r="B145" s="38"/>
+      <c r="C145" s="41"/>
       <c r="D145" s="3" t="s">
         <v>65</v>
       </c>
@@ -20232,13 +20232,13 @@
       </c>
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A146" s="48" t="s">
+      <c r="A146" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B146" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C146" s="36">
+      <c r="C146" s="39">
         <v>2015</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -20345,9 +20345,9 @@
       </c>
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A147" s="49"/>
-      <c r="B147" s="34"/>
-      <c r="C147" s="37"/>
+      <c r="A147" s="43"/>
+      <c r="B147" s="37"/>
+      <c r="C147" s="40"/>
       <c r="D147" t="s">
         <v>42</v>
       </c>
@@ -20452,9 +20452,9 @@
       </c>
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A148" s="49"/>
-      <c r="B148" s="34"/>
-      <c r="C148" s="37"/>
+      <c r="A148" s="43"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="40"/>
       <c r="D148" t="s">
         <v>65</v>
       </c>
@@ -20559,9 +20559,9 @@
       </c>
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A149" s="49"/>
-      <c r="B149" s="34"/>
-      <c r="C149" s="37">
+      <c r="A149" s="43"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="40">
         <v>2030</v>
       </c>
       <c r="D149" t="s">
@@ -20668,9 +20668,9 @@
       </c>
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A150" s="49"/>
-      <c r="B150" s="34"/>
-      <c r="C150" s="37"/>
+      <c r="A150" s="43"/>
+      <c r="B150" s="37"/>
+      <c r="C150" s="40"/>
       <c r="D150" t="s">
         <v>42</v>
       </c>
@@ -20775,9 +20775,9 @@
       </c>
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A151" s="49"/>
-      <c r="B151" s="34"/>
-      <c r="C151" s="37"/>
+      <c r="A151" s="43"/>
+      <c r="B151" s="37"/>
+      <c r="C151" s="40"/>
       <c r="D151" t="s">
         <v>65</v>
       </c>
@@ -20882,9 +20882,9 @@
       </c>
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A152" s="49"/>
-      <c r="B152" s="34"/>
-      <c r="C152" s="37">
+      <c r="A152" s="43"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="40">
         <v>2050</v>
       </c>
       <c r="D152" t="s">
@@ -20991,9 +20991,9 @@
       </c>
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A153" s="49"/>
-      <c r="B153" s="34"/>
-      <c r="C153" s="37"/>
+      <c r="A153" s="43"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="40"/>
       <c r="D153" t="s">
         <v>42</v>
       </c>
@@ -21098,9 +21098,9 @@
       </c>
     </row>
     <row r="154" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="49"/>
-      <c r="B154" s="35"/>
-      <c r="C154" s="38"/>
+      <c r="A154" s="43"/>
+      <c r="B154" s="38"/>
+      <c r="C154" s="41"/>
       <c r="D154" s="3" t="s">
         <v>65</v>
       </c>
@@ -21205,11 +21205,11 @@
       </c>
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A155" s="49"/>
-      <c r="B155" s="33" t="s">
+      <c r="A155" s="43"/>
+      <c r="B155" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C155" s="36">
+      <c r="C155" s="39">
         <v>2015</v>
       </c>
       <c r="D155" s="2" t="s">
@@ -21316,9 +21316,9 @@
       </c>
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A156" s="49"/>
-      <c r="B156" s="34"/>
-      <c r="C156" s="37"/>
+      <c r="A156" s="43"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="40"/>
       <c r="D156" t="s">
         <v>42</v>
       </c>
@@ -21423,9 +21423,9 @@
       </c>
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A157" s="49"/>
-      <c r="B157" s="34"/>
-      <c r="C157" s="37"/>
+      <c r="A157" s="43"/>
+      <c r="B157" s="37"/>
+      <c r="C157" s="40"/>
       <c r="D157" t="s">
         <v>65</v>
       </c>
@@ -21530,9 +21530,9 @@
       </c>
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A158" s="49"/>
-      <c r="B158" s="34"/>
-      <c r="C158" s="37">
+      <c r="A158" s="43"/>
+      <c r="B158" s="37"/>
+      <c r="C158" s="40">
         <v>2030</v>
       </c>
       <c r="D158" t="s">
@@ -21639,9 +21639,9 @@
       </c>
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A159" s="49"/>
-      <c r="B159" s="34"/>
-      <c r="C159" s="37"/>
+      <c r="A159" s="43"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="40"/>
       <c r="D159" t="s">
         <v>42</v>
       </c>
@@ -21746,9 +21746,9 @@
       </c>
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A160" s="49"/>
-      <c r="B160" s="34"/>
-      <c r="C160" s="37"/>
+      <c r="A160" s="43"/>
+      <c r="B160" s="37"/>
+      <c r="C160" s="40"/>
       <c r="D160" t="s">
         <v>65</v>
       </c>
@@ -21853,9 +21853,9 @@
       </c>
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A161" s="49"/>
-      <c r="B161" s="34"/>
-      <c r="C161" s="37">
+      <c r="A161" s="43"/>
+      <c r="B161" s="37"/>
+      <c r="C161" s="40">
         <v>2050</v>
       </c>
       <c r="D161" t="s">
@@ -21962,9 +21962,9 @@
       </c>
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A162" s="49"/>
-      <c r="B162" s="34"/>
-      <c r="C162" s="37"/>
+      <c r="A162" s="43"/>
+      <c r="B162" s="37"/>
+      <c r="C162" s="40"/>
       <c r="D162" t="s">
         <v>42</v>
       </c>
@@ -22069,9 +22069,9 @@
       </c>
     </row>
     <row r="163" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="49"/>
-      <c r="B163" s="35"/>
-      <c r="C163" s="38"/>
+      <c r="A163" s="43"/>
+      <c r="B163" s="38"/>
+      <c r="C163" s="41"/>
       <c r="D163" s="3" t="s">
         <v>65</v>
       </c>
@@ -22176,11 +22176,11 @@
       </c>
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A164" s="49"/>
-      <c r="B164" s="33" t="s">
+      <c r="A164" s="43"/>
+      <c r="B164" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C164" s="36">
+      <c r="C164" s="39">
         <v>2015</v>
       </c>
       <c r="D164" s="2" t="s">
@@ -22287,9 +22287,9 @@
       </c>
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A165" s="49"/>
-      <c r="B165" s="34"/>
-      <c r="C165" s="37"/>
+      <c r="A165" s="43"/>
+      <c r="B165" s="37"/>
+      <c r="C165" s="40"/>
       <c r="D165" t="s">
         <v>42</v>
       </c>
@@ -22394,9 +22394,9 @@
       </c>
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A166" s="49"/>
-      <c r="B166" s="34"/>
-      <c r="C166" s="37"/>
+      <c r="A166" s="43"/>
+      <c r="B166" s="37"/>
+      <c r="C166" s="40"/>
       <c r="D166" t="s">
         <v>65</v>
       </c>
@@ -22501,9 +22501,9 @@
       </c>
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A167" s="49"/>
-      <c r="B167" s="34"/>
-      <c r="C167" s="37">
+      <c r="A167" s="43"/>
+      <c r="B167" s="37"/>
+      <c r="C167" s="40">
         <v>2030</v>
       </c>
       <c r="D167" t="s">
@@ -22610,9 +22610,9 @@
       </c>
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A168" s="49"/>
-      <c r="B168" s="34"/>
-      <c r="C168" s="37"/>
+      <c r="A168" s="43"/>
+      <c r="B168" s="37"/>
+      <c r="C168" s="40"/>
       <c r="D168" t="s">
         <v>42</v>
       </c>
@@ -22717,9 +22717,9 @@
       </c>
     </row>
     <row r="169" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A169" s="49"/>
-      <c r="B169" s="34"/>
-      <c r="C169" s="37"/>
+      <c r="A169" s="43"/>
+      <c r="B169" s="37"/>
+      <c r="C169" s="40"/>
       <c r="D169" t="s">
         <v>65</v>
       </c>
@@ -22824,9 +22824,9 @@
       </c>
     </row>
     <row r="170" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A170" s="49"/>
-      <c r="B170" s="34"/>
-      <c r="C170" s="37">
+      <c r="A170" s="43"/>
+      <c r="B170" s="37"/>
+      <c r="C170" s="40">
         <v>2050</v>
       </c>
       <c r="D170" t="s">
@@ -22933,9 +22933,9 @@
       </c>
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A171" s="49"/>
-      <c r="B171" s="34"/>
-      <c r="C171" s="37"/>
+      <c r="A171" s="43"/>
+      <c r="B171" s="37"/>
+      <c r="C171" s="40"/>
       <c r="D171" t="s">
         <v>42</v>
       </c>
@@ -23040,9 +23040,9 @@
       </c>
     </row>
     <row r="172" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="49"/>
-      <c r="B172" s="35"/>
-      <c r="C172" s="38"/>
+      <c r="A172" s="43"/>
+      <c r="B172" s="38"/>
+      <c r="C172" s="41"/>
       <c r="D172" s="3" t="s">
         <v>65</v>
       </c>
@@ -23147,11 +23147,11 @@
       </c>
     </row>
     <row r="173" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A173" s="49"/>
-      <c r="B173" s="33" t="s">
+      <c r="A173" s="43"/>
+      <c r="B173" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C173" s="36">
+      <c r="C173" s="39">
         <v>2015</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -23258,9 +23258,9 @@
       </c>
     </row>
     <row r="174" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A174" s="49"/>
-      <c r="B174" s="34"/>
-      <c r="C174" s="37"/>
+      <c r="A174" s="43"/>
+      <c r="B174" s="37"/>
+      <c r="C174" s="40"/>
       <c r="D174" t="s">
         <v>42</v>
       </c>
@@ -23365,9 +23365,9 @@
       </c>
     </row>
     <row r="175" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A175" s="49"/>
-      <c r="B175" s="34"/>
-      <c r="C175" s="37"/>
+      <c r="A175" s="43"/>
+      <c r="B175" s="37"/>
+      <c r="C175" s="40"/>
       <c r="D175" t="s">
         <v>65</v>
       </c>
@@ -23472,9 +23472,9 @@
       </c>
     </row>
     <row r="176" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A176" s="49"/>
-      <c r="B176" s="34"/>
-      <c r="C176" s="37">
+      <c r="A176" s="43"/>
+      <c r="B176" s="37"/>
+      <c r="C176" s="40">
         <v>2030</v>
       </c>
       <c r="D176" t="s">
@@ -23581,9 +23581,9 @@
       </c>
     </row>
     <row r="177" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A177" s="49"/>
-      <c r="B177" s="34"/>
-      <c r="C177" s="37"/>
+      <c r="A177" s="43"/>
+      <c r="B177" s="37"/>
+      <c r="C177" s="40"/>
       <c r="D177" t="s">
         <v>42</v>
       </c>
@@ -23688,9 +23688,9 @@
       </c>
     </row>
     <row r="178" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A178" s="49"/>
-      <c r="B178" s="34"/>
-      <c r="C178" s="37"/>
+      <c r="A178" s="43"/>
+      <c r="B178" s="37"/>
+      <c r="C178" s="40"/>
       <c r="D178" t="s">
         <v>65</v>
       </c>
@@ -23795,9 +23795,9 @@
       </c>
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A179" s="49"/>
-      <c r="B179" s="34"/>
-      <c r="C179" s="37">
+      <c r="A179" s="43"/>
+      <c r="B179" s="37"/>
+      <c r="C179" s="40">
         <v>2050</v>
       </c>
       <c r="D179" t="s">
@@ -23904,9 +23904,9 @@
       </c>
     </row>
     <row r="180" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A180" s="49"/>
-      <c r="B180" s="34"/>
-      <c r="C180" s="37"/>
+      <c r="A180" s="43"/>
+      <c r="B180" s="37"/>
+      <c r="C180" s="40"/>
       <c r="D180" t="s">
         <v>42</v>
       </c>
@@ -24011,9 +24011,9 @@
       </c>
     </row>
     <row r="181" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="49"/>
-      <c r="B181" s="35"/>
-      <c r="C181" s="38"/>
+      <c r="A181" s="43"/>
+      <c r="B181" s="38"/>
+      <c r="C181" s="41"/>
       <c r="D181" s="3" t="s">
         <v>65</v>
       </c>
@@ -24118,11 +24118,11 @@
       </c>
     </row>
     <row r="182" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A182" s="49"/>
-      <c r="B182" s="33" t="s">
+      <c r="A182" s="43"/>
+      <c r="B182" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C182" s="36">
+      <c r="C182" s="39">
         <v>2015</v>
       </c>
       <c r="D182" s="2" t="s">
@@ -24229,9 +24229,9 @@
       </c>
     </row>
     <row r="183" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A183" s="49"/>
-      <c r="B183" s="34"/>
-      <c r="C183" s="37"/>
+      <c r="A183" s="43"/>
+      <c r="B183" s="37"/>
+      <c r="C183" s="40"/>
       <c r="D183" t="s">
         <v>42</v>
       </c>
@@ -24336,9 +24336,9 @@
       </c>
     </row>
     <row r="184" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A184" s="49"/>
-      <c r="B184" s="34"/>
-      <c r="C184" s="37"/>
+      <c r="A184" s="43"/>
+      <c r="B184" s="37"/>
+      <c r="C184" s="40"/>
       <c r="D184" t="s">
         <v>65</v>
       </c>
@@ -24443,9 +24443,9 @@
       </c>
     </row>
     <row r="185" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A185" s="49"/>
-      <c r="B185" s="34"/>
-      <c r="C185" s="37">
+      <c r="A185" s="43"/>
+      <c r="B185" s="37"/>
+      <c r="C185" s="40">
         <v>2030</v>
       </c>
       <c r="D185" t="s">
@@ -24552,9 +24552,9 @@
       </c>
     </row>
     <row r="186" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A186" s="49"/>
-      <c r="B186" s="34"/>
-      <c r="C186" s="37"/>
+      <c r="A186" s="43"/>
+      <c r="B186" s="37"/>
+      <c r="C186" s="40"/>
       <c r="D186" t="s">
         <v>42</v>
       </c>
@@ -24659,9 +24659,9 @@
       </c>
     </row>
     <row r="187" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A187" s="49"/>
-      <c r="B187" s="34"/>
-      <c r="C187" s="37"/>
+      <c r="A187" s="43"/>
+      <c r="B187" s="37"/>
+      <c r="C187" s="40"/>
       <c r="D187" t="s">
         <v>65</v>
       </c>
@@ -24766,9 +24766,9 @@
       </c>
     </row>
     <row r="188" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A188" s="49"/>
-      <c r="B188" s="34"/>
-      <c r="C188" s="37">
+      <c r="A188" s="43"/>
+      <c r="B188" s="37"/>
+      <c r="C188" s="40">
         <v>2050</v>
       </c>
       <c r="D188" t="s">
@@ -24875,9 +24875,9 @@
       </c>
     </row>
     <row r="189" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A189" s="49"/>
-      <c r="B189" s="34"/>
-      <c r="C189" s="37"/>
+      <c r="A189" s="43"/>
+      <c r="B189" s="37"/>
+      <c r="C189" s="40"/>
       <c r="D189" t="s">
         <v>42</v>
       </c>
@@ -24982,9 +24982,9 @@
       </c>
     </row>
     <row r="190" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="49"/>
-      <c r="B190" s="35"/>
-      <c r="C190" s="38"/>
+      <c r="A190" s="43"/>
+      <c r="B190" s="38"/>
+      <c r="C190" s="41"/>
       <c r="D190" s="3" t="s">
         <v>65</v>
       </c>
@@ -25089,11 +25089,11 @@
       </c>
     </row>
     <row r="191" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A191" s="49"/>
-      <c r="B191" s="33" t="s">
+      <c r="A191" s="43"/>
+      <c r="B191" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C191" s="36">
+      <c r="C191" s="39">
         <v>2015</v>
       </c>
       <c r="D191" s="2" t="s">
@@ -25200,9 +25200,9 @@
       </c>
     </row>
     <row r="192" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A192" s="49"/>
-      <c r="B192" s="34"/>
-      <c r="C192" s="37"/>
+      <c r="A192" s="43"/>
+      <c r="B192" s="37"/>
+      <c r="C192" s="40"/>
       <c r="D192" t="s">
         <v>42</v>
       </c>
@@ -25307,9 +25307,9 @@
       </c>
     </row>
     <row r="193" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A193" s="49"/>
-      <c r="B193" s="34"/>
-      <c r="C193" s="37"/>
+      <c r="A193" s="43"/>
+      <c r="B193" s="37"/>
+      <c r="C193" s="40"/>
       <c r="D193" t="s">
         <v>65</v>
       </c>
@@ -25414,9 +25414,9 @@
       </c>
     </row>
     <row r="194" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A194" s="49"/>
-      <c r="B194" s="34"/>
-      <c r="C194" s="37">
+      <c r="A194" s="43"/>
+      <c r="B194" s="37"/>
+      <c r="C194" s="40">
         <v>2030</v>
       </c>
       <c r="D194" t="s">
@@ -25523,9 +25523,9 @@
       </c>
     </row>
     <row r="195" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A195" s="49"/>
-      <c r="B195" s="34"/>
-      <c r="C195" s="37"/>
+      <c r="A195" s="43"/>
+      <c r="B195" s="37"/>
+      <c r="C195" s="40"/>
       <c r="D195" t="s">
         <v>42</v>
       </c>
@@ -25630,9 +25630,9 @@
       </c>
     </row>
     <row r="196" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A196" s="49"/>
-      <c r="B196" s="34"/>
-      <c r="C196" s="37"/>
+      <c r="A196" s="43"/>
+      <c r="B196" s="37"/>
+      <c r="C196" s="40"/>
       <c r="D196" t="s">
         <v>65</v>
       </c>
@@ -25737,9 +25737,9 @@
       </c>
     </row>
     <row r="197" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A197" s="49"/>
-      <c r="B197" s="34"/>
-      <c r="C197" s="37">
+      <c r="A197" s="43"/>
+      <c r="B197" s="37"/>
+      <c r="C197" s="40">
         <v>2050</v>
       </c>
       <c r="D197" t="s">
@@ -25846,9 +25846,9 @@
       </c>
     </row>
     <row r="198" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A198" s="49"/>
-      <c r="B198" s="34"/>
-      <c r="C198" s="37"/>
+      <c r="A198" s="43"/>
+      <c r="B198" s="37"/>
+      <c r="C198" s="40"/>
       <c r="D198" t="s">
         <v>42</v>
       </c>
@@ -25953,9 +25953,9 @@
       </c>
     </row>
     <row r="199" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="49"/>
-      <c r="B199" s="35"/>
-      <c r="C199" s="38"/>
+      <c r="A199" s="43"/>
+      <c r="B199" s="38"/>
+      <c r="C199" s="41"/>
       <c r="D199" s="3" t="s">
         <v>65</v>
       </c>
@@ -26060,11 +26060,11 @@
       </c>
     </row>
     <row r="200" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A200" s="49"/>
-      <c r="B200" s="33" t="s">
+      <c r="A200" s="43"/>
+      <c r="B200" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C200" s="36">
+      <c r="C200" s="39">
         <v>2015</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -26171,9 +26171,9 @@
       </c>
     </row>
     <row r="201" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A201" s="49"/>
-      <c r="B201" s="34"/>
-      <c r="C201" s="37"/>
+      <c r="A201" s="43"/>
+      <c r="B201" s="37"/>
+      <c r="C201" s="40"/>
       <c r="D201" t="s">
         <v>42</v>
       </c>
@@ -26278,9 +26278,9 @@
       </c>
     </row>
     <row r="202" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A202" s="49"/>
-      <c r="B202" s="34"/>
-      <c r="C202" s="37"/>
+      <c r="A202" s="43"/>
+      <c r="B202" s="37"/>
+      <c r="C202" s="40"/>
       <c r="D202" t="s">
         <v>65</v>
       </c>
@@ -26385,9 +26385,9 @@
       </c>
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A203" s="49"/>
-      <c r="B203" s="34"/>
-      <c r="C203" s="37">
+      <c r="A203" s="43"/>
+      <c r="B203" s="37"/>
+      <c r="C203" s="40">
         <v>2030</v>
       </c>
       <c r="D203" t="s">
@@ -26494,9 +26494,9 @@
       </c>
     </row>
     <row r="204" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A204" s="49"/>
-      <c r="B204" s="34"/>
-      <c r="C204" s="37"/>
+      <c r="A204" s="43"/>
+      <c r="B204" s="37"/>
+      <c r="C204" s="40"/>
       <c r="D204" t="s">
         <v>42</v>
       </c>
@@ -26601,9 +26601,9 @@
       </c>
     </row>
     <row r="205" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A205" s="49"/>
-      <c r="B205" s="34"/>
-      <c r="C205" s="37"/>
+      <c r="A205" s="43"/>
+      <c r="B205" s="37"/>
+      <c r="C205" s="40"/>
       <c r="D205" t="s">
         <v>65</v>
       </c>
@@ -26708,9 +26708,9 @@
       </c>
     </row>
     <row r="206" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A206" s="49"/>
-      <c r="B206" s="34"/>
-      <c r="C206" s="37">
+      <c r="A206" s="43"/>
+      <c r="B206" s="37"/>
+      <c r="C206" s="40">
         <v>2050</v>
       </c>
       <c r="D206" t="s">
@@ -26817,9 +26817,9 @@
       </c>
     </row>
     <row r="207" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A207" s="49"/>
-      <c r="B207" s="34"/>
-      <c r="C207" s="37"/>
+      <c r="A207" s="43"/>
+      <c r="B207" s="37"/>
+      <c r="C207" s="40"/>
       <c r="D207" t="s">
         <v>42</v>
       </c>
@@ -26924,9 +26924,9 @@
       </c>
     </row>
     <row r="208" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="49"/>
-      <c r="B208" s="35"/>
-      <c r="C208" s="38"/>
+      <c r="A208" s="43"/>
+      <c r="B208" s="38"/>
+      <c r="C208" s="41"/>
       <c r="D208" s="3" t="s">
         <v>65</v>
       </c>
@@ -27031,11 +27031,11 @@
       </c>
     </row>
     <row r="209" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A209" s="49"/>
-      <c r="B209" s="33" t="s">
+      <c r="A209" s="43"/>
+      <c r="B209" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C209" s="36">
+      <c r="C209" s="39">
         <v>2015</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -27142,9 +27142,9 @@
       </c>
     </row>
     <row r="210" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A210" s="49"/>
-      <c r="B210" s="34"/>
-      <c r="C210" s="37"/>
+      <c r="A210" s="43"/>
+      <c r="B210" s="37"/>
+      <c r="C210" s="40"/>
       <c r="D210" t="s">
         <v>42</v>
       </c>
@@ -27249,9 +27249,9 @@
       </c>
     </row>
     <row r="211" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A211" s="49"/>
-      <c r="B211" s="34"/>
-      <c r="C211" s="37"/>
+      <c r="A211" s="43"/>
+      <c r="B211" s="37"/>
+      <c r="C211" s="40"/>
       <c r="D211" t="s">
         <v>65</v>
       </c>
@@ -27356,9 +27356,9 @@
       </c>
     </row>
     <row r="212" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A212" s="49"/>
-      <c r="B212" s="34"/>
-      <c r="C212" s="37">
+      <c r="A212" s="43"/>
+      <c r="B212" s="37"/>
+      <c r="C212" s="40">
         <v>2030</v>
       </c>
       <c r="D212" t="s">
@@ -27465,9 +27465,9 @@
       </c>
     </row>
     <row r="213" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A213" s="49"/>
-      <c r="B213" s="34"/>
-      <c r="C213" s="37"/>
+      <c r="A213" s="43"/>
+      <c r="B213" s="37"/>
+      <c r="C213" s="40"/>
       <c r="D213" t="s">
         <v>42</v>
       </c>
@@ -27572,9 +27572,9 @@
       </c>
     </row>
     <row r="214" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A214" s="49"/>
-      <c r="B214" s="34"/>
-      <c r="C214" s="37"/>
+      <c r="A214" s="43"/>
+      <c r="B214" s="37"/>
+      <c r="C214" s="40"/>
       <c r="D214" t="s">
         <v>65</v>
       </c>
@@ -27679,9 +27679,9 @@
       </c>
     </row>
     <row r="215" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A215" s="49"/>
-      <c r="B215" s="34"/>
-      <c r="C215" s="37">
+      <c r="A215" s="43"/>
+      <c r="B215" s="37"/>
+      <c r="C215" s="40">
         <v>2050</v>
       </c>
       <c r="D215" t="s">
@@ -27788,9 +27788,9 @@
       </c>
     </row>
     <row r="216" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A216" s="49"/>
-      <c r="B216" s="34"/>
-      <c r="C216" s="37"/>
+      <c r="A216" s="43"/>
+      <c r="B216" s="37"/>
+      <c r="C216" s="40"/>
       <c r="D216" t="s">
         <v>42</v>
       </c>
@@ -27895,9 +27895,9 @@
       </c>
     </row>
     <row r="217" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="50"/>
-      <c r="B217" s="35"/>
-      <c r="C217" s="38"/>
+      <c r="A217" s="44"/>
+      <c r="B217" s="38"/>
+      <c r="C217" s="41"/>
       <c r="D217" s="3" t="s">
         <v>65</v>
       </c>
@@ -28003,6 +28003,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="B128:B136"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="B119:B127"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="B101:B109"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B209:B217"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="C191:C193"/>
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="B200:B208"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="C206:C208"/>
+    <mergeCell ref="B191:B199"/>
+    <mergeCell ref="B173:B181"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="B182:B190"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="C188:C190"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A2:A73"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B29:B37"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="A74:A145"/>
+    <mergeCell ref="B74:B82"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="B137:B145"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C143:C145"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B164:B172"/>
     <mergeCell ref="C164:C166"/>
@@ -28019,90 +28103,6 @@
     <mergeCell ref="C161:C163"/>
     <mergeCell ref="B92:B100"/>
     <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="A74:A145"/>
-    <mergeCell ref="B74:B82"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="B137:B145"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A2:A73"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B29:B37"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B173:B181"/>
-    <mergeCell ref="C173:C175"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="B182:B190"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="C188:C190"/>
-    <mergeCell ref="B209:B217"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="C191:C193"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="B200:B208"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="C203:C205"/>
-    <mergeCell ref="C206:C208"/>
-    <mergeCell ref="B191:B199"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="B101:B109"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B128:B136"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B65:B73"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="B110:B118"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="B119:B127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
@@ -28113,8 +28113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3497A4D-8C30-42C3-BC90-66DE8729139C}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
